--- a/feedback_forms/current_versions/landfill_operator_feedback_v071.xlsx
+++ b/feedback_forms/current_versions/landfill_operator_feedback_v071.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\tony_local\pycharm\feedback_portal\feedback_forms\current_versions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADE5D45E-DC70-47C6-8BAE-130741487D5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6841AA8-6DB2-4C9E-BE56-6396230C7EAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31755" yWindow="2970" windowWidth="21600" windowHeight="11100" tabRatio="705" activeTab="6" xr2:uid="{908CDDAE-4CC3-4DCD-AAA9-A26C259C2234}"/>
+    <workbookView xWindow="2933" yWindow="2933" windowWidth="19200" windowHeight="11387" tabRatio="705" activeTab="1" xr2:uid="{908CDDAE-4CC3-4DCD-AAA9-A26C259C2234}"/>
   </bookViews>
   <sheets>
     <sheet name="Feedback Form" sheetId="6" r:id="rId1"/>
@@ -3829,17 +3829,17 @@
   <sheetViews>
     <sheetView topLeftCell="A11" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="4.140625" style="19" customWidth="1"/>
-    <col min="2" max="2" width="65.7109375" style="19" customWidth="1"/>
-    <col min="3" max="3" width="4.7109375" style="19" customWidth="1"/>
-    <col min="4" max="4" width="65.7109375" style="19" customWidth="1"/>
-    <col min="5" max="5" width="4.140625" style="19" customWidth="1"/>
+    <col min="1" max="1" width="4.1171875" style="19" customWidth="1"/>
+    <col min="2" max="2" width="65.703125" style="19" customWidth="1"/>
+    <col min="3" max="3" width="4.703125" style="19" customWidth="1"/>
+    <col min="4" max="4" width="65.703125" style="19" customWidth="1"/>
+    <col min="5" max="5" width="4.1171875" style="19" customWidth="1"/>
     <col min="6" max="16384" width="9" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:33" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:33" s="30" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B1" s="29"/>
       <c r="C1" s="29"/>
       <c r="D1" s="29"/>
@@ -3875,7 +3875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="2:33" s="30" customFormat="1" ht="51" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:33" s="30" customFormat="1" ht="51" x14ac:dyDescent="0.5">
       <c r="B2" s="31" t="s">
         <v>1</v>
       </c>
@@ -3884,7 +3884,7 @@
       <c r="E2" s="31"/>
       <c r="F2" s="65"/>
     </row>
-    <row r="3" spans="2:33" s="30" customFormat="1" ht="51" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:33" s="30" customFormat="1" ht="51" x14ac:dyDescent="0.5">
       <c r="B3" s="31" t="s">
         <v>2</v>
       </c>
@@ -3893,13 +3893,13 @@
       <c r="E3" s="31"/>
       <c r="F3" s="66"/>
     </row>
-    <row r="4" spans="2:33" s="30" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:33" s="30" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B4" s="32"/>
       <c r="C4" s="32"/>
       <c r="D4" s="32"/>
       <c r="E4" s="33"/>
     </row>
-    <row r="5" spans="2:33" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:33" s="30" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B5" s="29"/>
       <c r="C5" s="29"/>
       <c r="D5" s="29"/>
@@ -3935,7 +3935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:33" s="34" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:33" s="34" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B6" s="67"/>
       <c r="C6" s="67"/>
       <c r="D6" s="67"/>
@@ -3969,12 +3969,12 @@
       <c r="AF6" s="68"/>
       <c r="AG6" s="68"/>
     </row>
-    <row r="7" spans="2:33" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:33" s="30" customFormat="1" x14ac:dyDescent="0.5">
       <c r="AG7" s="30" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:33" s="36" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:33" s="36" customFormat="1" ht="15" x14ac:dyDescent="0.5">
       <c r="B8" s="69" t="s">
         <v>3</v>
       </c>
@@ -3983,7 +3983,7 @@
       <c r="E8" s="35"/>
       <c r="F8" s="65"/>
     </row>
-    <row r="9" spans="2:33" s="36" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:33" s="36" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B9" s="70" t="s">
         <v>4</v>
       </c>
@@ -3992,7 +3992,7 @@
       <c r="E9" s="35"/>
       <c r="F9" s="65"/>
     </row>
-    <row r="10" spans="2:33" s="36" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:33" s="36" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B10" s="71" t="s">
         <v>5</v>
       </c>
@@ -4001,7 +4001,7 @@
       <c r="E10" s="35"/>
       <c r="F10" s="65"/>
     </row>
-    <row r="11" spans="2:33" s="36" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:33" s="36" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B11" s="72" t="s">
         <v>6</v>
       </c>
@@ -4010,7 +4010,7 @@
       <c r="E11" s="35"/>
       <c r="F11" s="65"/>
     </row>
-    <row r="12" spans="2:33" s="36" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:33" s="36" customFormat="1" ht="15" x14ac:dyDescent="0.5">
       <c r="B12" s="69" t="s">
         <v>7</v>
       </c>
@@ -4019,7 +4019,7 @@
       <c r="E12" s="35"/>
       <c r="F12" s="65"/>
     </row>
-    <row r="13" spans="2:33" s="36" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:33" s="36" customFormat="1" ht="15" x14ac:dyDescent="0.5">
       <c r="B13" s="69" t="s">
         <v>8</v>
       </c>
@@ -4028,7 +4028,7 @@
       <c r="E13" s="35"/>
       <c r="F13" s="65"/>
     </row>
-    <row r="14" spans="2:33" s="36" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:33" s="36" customFormat="1" ht="15" x14ac:dyDescent="0.5">
       <c r="B14" s="69" t="s">
         <v>9</v>
       </c>
@@ -4037,7 +4037,7 @@
       <c r="E14" s="35"/>
       <c r="F14" s="65"/>
     </row>
-    <row r="15" spans="2:33" s="36" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:33" s="36" customFormat="1" ht="15" x14ac:dyDescent="0.5">
       <c r="B15" s="69" t="s">
         <v>10</v>
       </c>
@@ -4046,7 +4046,7 @@
       <c r="E15" s="35"/>
       <c r="F15" s="65"/>
     </row>
-    <row r="16" spans="2:33" s="36" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:33" s="36" customFormat="1" ht="15" x14ac:dyDescent="0.5">
       <c r="B16" s="69" t="s">
         <v>11</v>
       </c>
@@ -4055,7 +4055,7 @@
       <c r="E16" s="35"/>
       <c r="F16" s="65"/>
     </row>
-    <row r="17" spans="2:33" s="36" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:33" s="36" customFormat="1" ht="15" x14ac:dyDescent="0.5">
       <c r="B17" s="69" t="s">
         <v>12</v>
       </c>
@@ -4064,7 +4064,7 @@
       <c r="E17" s="35"/>
       <c r="F17" s="65"/>
     </row>
-    <row r="18" spans="2:33" s="36" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:33" s="36" customFormat="1" ht="15" x14ac:dyDescent="0.5">
       <c r="B18" s="73" t="s">
         <v>13</v>
       </c>
@@ -4073,12 +4073,12 @@
       <c r="E18" s="35"/>
       <c r="F18" s="65"/>
     </row>
-    <row r="20" spans="2:33" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:33" s="30" customFormat="1" x14ac:dyDescent="0.5">
       <c r="AG20" s="30" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:33" s="34" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:33" s="34" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B21" s="67"/>
       <c r="C21" s="67"/>
       <c r="D21" s="67"/>
@@ -4112,12 +4112,12 @@
       <c r="AF21" s="68"/>
       <c r="AG21" s="68"/>
     </row>
-    <row r="22" spans="2:33" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:33" s="30" customFormat="1" x14ac:dyDescent="0.5">
       <c r="AG22" s="30" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:33" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:33" s="20" customFormat="1" ht="15" x14ac:dyDescent="0.5">
       <c r="B23" s="69" t="s">
         <v>14</v>
       </c>
@@ -4128,7 +4128,7 @@
       <c r="E23" s="69"/>
       <c r="G23" s="36"/>
     </row>
-    <row r="24" spans="2:33" s="36" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:33" s="36" customFormat="1" ht="15" x14ac:dyDescent="0.5">
       <c r="B24" s="69" t="s">
         <v>15</v>
       </c>
@@ -4138,7 +4138,7 @@
       </c>
       <c r="E24" s="35"/>
     </row>
-    <row r="25" spans="2:33" s="36" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:33" s="36" customFormat="1" ht="15" x14ac:dyDescent="0.5">
       <c r="B25" s="69" t="s">
         <v>16</v>
       </c>
@@ -4148,7 +4148,7 @@
       </c>
       <c r="E25" s="35"/>
     </row>
-    <row r="26" spans="2:33" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:33" s="20" customFormat="1" ht="15" x14ac:dyDescent="0.5">
       <c r="B26" s="69" t="s">
         <v>17</v>
       </c>
@@ -4159,7 +4159,7 @@
       <c r="E26" s="69"/>
       <c r="G26" s="36"/>
     </row>
-    <row r="27" spans="2:33" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:33" s="20" customFormat="1" ht="15" x14ac:dyDescent="0.5">
       <c r="B27" s="69" t="s">
         <v>18</v>
       </c>
@@ -4170,7 +4170,7 @@
       <c r="E27" s="69"/>
       <c r="G27" s="36"/>
     </row>
-    <row r="28" spans="2:33" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:33" s="20" customFormat="1" ht="15" x14ac:dyDescent="0.5">
       <c r="B28" s="69" t="s">
         <v>19</v>
       </c>
@@ -4182,12 +4182,12 @@
       <c r="F28" s="65"/>
       <c r="G28" s="36"/>
     </row>
-    <row r="29" spans="2:33" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:33" s="30" customFormat="1" x14ac:dyDescent="0.5">
       <c r="AG29" s="30" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:33" s="34" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:33" s="34" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B30" s="67"/>
       <c r="C30" s="67"/>
       <c r="D30" s="67"/>
@@ -4221,12 +4221,12 @@
       <c r="AF30" s="68"/>
       <c r="AG30" s="68"/>
     </row>
-    <row r="31" spans="2:33" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:33" s="30" customFormat="1" x14ac:dyDescent="0.5">
       <c r="AG31" s="30" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:33" s="20" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:33" s="20" customFormat="1" ht="15.35" x14ac:dyDescent="0.5">
       <c r="B32" s="65" t="s">
         <v>21</v>
       </c>
@@ -4237,7 +4237,7 @@
       <c r="E32" s="66"/>
       <c r="G32" s="36"/>
     </row>
-    <row r="33" spans="2:33" s="20" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:33" s="20" customFormat="1" ht="15.35" x14ac:dyDescent="0.5">
       <c r="B33" s="65" t="s">
         <v>23</v>
       </c>
@@ -4248,7 +4248,7 @@
       <c r="E33" s="66"/>
       <c r="G33" s="36"/>
     </row>
-    <row r="34" spans="2:33" s="20" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:33" s="20" customFormat="1" ht="15.35" x14ac:dyDescent="0.5">
       <c r="B34" s="65" t="s">
         <v>25</v>
       </c>
@@ -4259,7 +4259,7 @@
       <c r="E34" s="66"/>
       <c r="G34" s="36"/>
     </row>
-    <row r="35" spans="2:33" s="20" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:33" s="20" customFormat="1" ht="15.35" x14ac:dyDescent="0.5">
       <c r="B35" s="65" t="s">
         <v>27</v>
       </c>
@@ -4270,7 +4270,7 @@
       <c r="E35" s="66"/>
       <c r="G35" s="36"/>
     </row>
-    <row r="36" spans="2:33" s="20" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:33" s="20" customFormat="1" ht="15.35" x14ac:dyDescent="0.5">
       <c r="B36" s="65" t="s">
         <v>29</v>
       </c>
@@ -4281,12 +4281,12 @@
       <c r="E36" s="66"/>
       <c r="G36" s="36"/>
     </row>
-    <row r="37" spans="2:33" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:33" s="30" customFormat="1" x14ac:dyDescent="0.5">
       <c r="AG37" s="30" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:33" s="34" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:33" s="34" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B38" s="67"/>
       <c r="C38" s="67"/>
       <c r="D38" s="67"/>
@@ -4320,12 +4320,12 @@
       <c r="AF38" s="68"/>
       <c r="AG38" s="68"/>
     </row>
-    <row r="39" spans="2:33" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:33" s="30" customFormat="1" x14ac:dyDescent="0.5">
       <c r="AG39" s="30" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="2:33" s="20" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:33" s="20" customFormat="1" ht="15.35" x14ac:dyDescent="0.5">
       <c r="B40" s="65" t="s">
         <v>31</v>
       </c>
@@ -4336,7 +4336,7 @@
       <c r="E40" s="37"/>
       <c r="G40" s="36"/>
     </row>
-    <row r="41" spans="2:33" s="20" customFormat="1" ht="31.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:33" s="20" customFormat="1" ht="30.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B41" s="38" t="s">
         <v>32</v>
       </c>
@@ -4346,7 +4346,7 @@
       </c>
       <c r="G41" s="36"/>
     </row>
-    <row r="42" spans="2:33" s="20" customFormat="1" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:33" s="20" customFormat="1" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B42" s="65" t="s">
         <v>34</v>
       </c>
@@ -4356,7 +4356,7 @@
       </c>
       <c r="G42" s="36"/>
     </row>
-    <row r="43" spans="2:33" s="20" customFormat="1" ht="46.5" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:33" s="20" customFormat="1" ht="45.7" thickTop="1" x14ac:dyDescent="0.5">
       <c r="B43" s="38" t="s">
         <v>36</v>
       </c>
@@ -4366,12 +4366,12 @@
       </c>
       <c r="G43" s="36"/>
     </row>
-    <row r="44" spans="2:33" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:33" s="30" customFormat="1" x14ac:dyDescent="0.5">
       <c r="AG44" s="30" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="2:33" s="34" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:33" s="34" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B45" s="67"/>
       <c r="C45" s="67"/>
       <c r="D45" s="67"/>
@@ -4405,7 +4405,7 @@
       <c r="AF45" s="68"/>
       <c r="AG45" s="68"/>
     </row>
-    <row r="46" spans="2:33" s="30" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:33" s="30" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B46" s="79" t="s">
         <v>38</v>
       </c>
@@ -4415,7 +4415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="2:33" s="30" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:33" s="30" customFormat="1" ht="15.35" x14ac:dyDescent="0.5">
       <c r="B47" s="38" t="s">
         <v>39</v>
       </c>
@@ -4427,7 +4427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:33" s="20" customFormat="1" ht="30.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:33" s="20" customFormat="1" ht="30.35" x14ac:dyDescent="0.5">
       <c r="B48" s="48" t="s">
         <v>40</v>
       </c>
@@ -4438,7 +4438,7 @@
       <c r="E48" s="30"/>
       <c r="G48" s="36"/>
     </row>
-    <row r="49" spans="2:33" s="20" customFormat="1" ht="31.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:33" s="20" customFormat="1" ht="30.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B49" s="38" t="s">
         <v>41</v>
       </c>
@@ -4449,7 +4449,7 @@
       <c r="E49" s="30"/>
       <c r="G49" s="36"/>
     </row>
-    <row r="50" spans="2:33" s="20" customFormat="1" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:33" s="20" customFormat="1" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B50" s="38" t="s">
         <v>42</v>
       </c>
@@ -4459,7 +4459,7 @@
       </c>
       <c r="G50" s="36"/>
     </row>
-    <row r="51" spans="2:33" s="20" customFormat="1" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:33" s="20" customFormat="1" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B51" s="38" t="s">
         <v>43</v>
       </c>
@@ -4469,7 +4469,7 @@
       </c>
       <c r="G51" s="36"/>
     </row>
-    <row r="52" spans="2:33" s="20" customFormat="1" ht="47.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:33" s="20" customFormat="1" ht="31" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B52" s="38" t="s">
         <v>44</v>
       </c>
@@ -4479,7 +4479,7 @@
       </c>
       <c r="G52" s="36"/>
     </row>
-    <row r="53" spans="2:33" s="20" customFormat="1" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:33" s="20" customFormat="1" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B53" s="65" t="s">
         <v>46</v>
       </c>
@@ -4489,7 +4489,7 @@
       </c>
       <c r="G53" s="36"/>
     </row>
-    <row r="54" spans="2:33" s="20" customFormat="1" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:33" s="20" customFormat="1" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B54" s="65" t="s">
         <v>47</v>
       </c>
@@ -4498,7 +4498,7 @@
       </c>
       <c r="G54" s="36"/>
     </row>
-    <row r="55" spans="2:33" s="20" customFormat="1" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:33" s="20" customFormat="1" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B55" s="65" t="s">
         <v>48</v>
       </c>
@@ -4507,7 +4507,7 @@
       </c>
       <c r="G55" s="36"/>
     </row>
-    <row r="56" spans="2:33" s="20" customFormat="1" ht="46.5" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:33" s="20" customFormat="1" ht="45.7" thickTop="1" x14ac:dyDescent="0.5">
       <c r="B56" s="38" t="s">
         <v>49</v>
       </c>
@@ -4516,12 +4516,12 @@
       </c>
       <c r="G56" s="36"/>
     </row>
-    <row r="57" spans="2:33" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:33" s="20" customFormat="1" ht="15" x14ac:dyDescent="0.5">
       <c r="B57" s="66"/>
       <c r="C57" s="66"/>
       <c r="D57" s="66"/>
     </row>
-    <row r="58" spans="2:33" s="34" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:33" s="34" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B58" s="67"/>
       <c r="C58" s="67"/>
       <c r="D58" s="67"/>
@@ -4555,12 +4555,12 @@
       <c r="AF58" s="68"/>
       <c r="AG58" s="68"/>
     </row>
-    <row r="59" spans="2:33" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:33" s="30" customFormat="1" x14ac:dyDescent="0.5">
       <c r="AG59" s="30" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="2:33" s="20" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:33" s="20" customFormat="1" ht="15.35" x14ac:dyDescent="0.5">
       <c r="B60" s="65" t="s">
         <v>51</v>
       </c>
@@ -4569,7 +4569,7 @@
       </c>
       <c r="G60" s="36"/>
     </row>
-    <row r="61" spans="2:33" s="20" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:33" s="20" customFormat="1" ht="15.35" x14ac:dyDescent="0.5">
       <c r="B61" s="65" t="s">
         <v>53</v>
       </c>
@@ -4578,7 +4578,7 @@
       </c>
       <c r="G61" s="36"/>
     </row>
-    <row r="62" spans="2:33" s="20" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:33" s="20" customFormat="1" ht="15.35" x14ac:dyDescent="0.5">
       <c r="B62" s="38" t="s">
         <v>54</v>
       </c>
@@ -4587,7 +4587,7 @@
       </c>
       <c r="G62" s="36"/>
     </row>
-    <row r="63" spans="2:33" s="20" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:33" s="20" customFormat="1" ht="15.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B63" s="38" t="s">
         <v>55</v>
       </c>
@@ -4596,7 +4596,7 @@
       </c>
       <c r="G63" s="36"/>
     </row>
-    <row r="64" spans="2:33" s="20" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:33" s="20" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B64" s="65" t="s">
         <v>56</v>
       </c>
@@ -4605,7 +4605,7 @@
       </c>
       <c r="G64" s="36"/>
     </row>
-    <row r="65" spans="2:7" s="20" customFormat="1" ht="32.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:7" s="20" customFormat="1" ht="31" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B65" s="65" t="s">
         <v>57</v>
       </c>
@@ -4614,7 +4614,7 @@
       </c>
       <c r="G65" s="36"/>
     </row>
-    <row r="66" spans="2:7" s="20" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:7" s="20" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B66" s="65" t="s">
         <v>59</v>
       </c>
@@ -4623,7 +4623,7 @@
       </c>
       <c r="G66" s="36"/>
     </row>
-    <row r="67" spans="2:7" s="20" customFormat="1" ht="31.5" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:7" s="20" customFormat="1" ht="15.7" thickTop="1" x14ac:dyDescent="0.5">
       <c r="B67" s="65" t="s">
         <v>60</v>
       </c>
@@ -4632,15 +4632,15 @@
       </c>
       <c r="G67" s="36"/>
     </row>
-    <row r="68" spans="2:7" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:7" s="20" customFormat="1" ht="15" x14ac:dyDescent="0.5">
       <c r="B68" s="66"/>
       <c r="D68" s="39"/>
     </row>
-    <row r="69" spans="2:7" s="40" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:7" s="40" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.5">
       <c r="G69" s="36"/>
     </row>
-    <row r="70" spans="2:7" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="71" spans="2:7" s="20" customFormat="1" ht="30.75" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:7" s="40" customFormat="1" x14ac:dyDescent="0.5"/>
+    <row r="71" spans="2:7" s="20" customFormat="1" ht="30.35" x14ac:dyDescent="0.5">
       <c r="B71" s="65" t="s">
         <v>62</v>
       </c>
@@ -4649,7 +4649,7 @@
       </c>
       <c r="G71" s="36"/>
     </row>
-    <row r="72" spans="2:7" s="20" customFormat="1" ht="30.75" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:7" s="20" customFormat="1" ht="30.35" x14ac:dyDescent="0.5">
       <c r="B72" s="65" t="s">
         <v>63</v>
       </c>
@@ -4658,7 +4658,7 @@
       </c>
       <c r="G72" s="36"/>
     </row>
-    <row r="73" spans="2:7" s="20" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:7" s="20" customFormat="1" ht="15.35" x14ac:dyDescent="0.5">
       <c r="B73" s="38" t="s">
         <v>64</v>
       </c>
@@ -4834,22 +4834,22 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A2:R122"/>
   <sheetViews>
-    <sheetView topLeftCell="A112" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A112" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D117" sqref="D117"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="1" max="1" width="3.703125" customWidth="1"/>
     <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="3" max="3" width="45.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="45.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="45.703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.41015625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5859375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.703125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="45.703125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:18" s="21" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:18" s="21" customFormat="1" ht="20.7" x14ac:dyDescent="0.7">
       <c r="B2" s="21" t="s">
         <v>66</v>
       </c>
@@ -4857,7 +4857,7 @@
       <c r="F2" s="22"/>
       <c r="G2" s="22"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.5">
       <c r="G3" s="4"/>
       <c r="H3" s="7"/>
       <c r="I3" s="7"/>
@@ -4871,7 +4871,7 @@
       <c r="Q3" s="7"/>
       <c r="R3" s="7"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
         <v>67</v>
       </c>
@@ -4879,15 +4879,15 @@
         <v>68</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.5">
       <c r="B7" s="16" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.5">
       <c r="B8" s="16"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.5">
       <c r="B9" t="s">
         <v>70</v>
       </c>
@@ -4895,7 +4895,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="10" spans="1:18" s="20" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" s="20" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B10" s="23" t="s">
         <v>72</v>
       </c>
@@ -4906,7 +4906,7 @@
       <c r="F10" s="23"/>
       <c r="G10" s="23"/>
     </row>
-    <row r="11" spans="1:18" s="20" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" s="20" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
       <c r="B11" s="23" t="s">
         <v>74</v>
       </c>
@@ -4917,7 +4917,7 @@
       <c r="F11" s="23"/>
       <c r="G11" s="23"/>
     </row>
-    <row r="12" spans="1:18" s="20" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" s="20" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
       <c r="B12" s="23" t="s">
         <v>76</v>
       </c>
@@ -4928,7 +4928,7 @@
       <c r="F12" s="23"/>
       <c r="G12" s="23"/>
     </row>
-    <row r="13" spans="1:18" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" s="20" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B13" s="23" t="s">
         <v>78</v>
       </c>
@@ -4939,15 +4939,15 @@
       <c r="F13" s="23"/>
       <c r="G13" s="23"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.5">
       <c r="B14" s="20"/>
       <c r="C14" s="23"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.5">
       <c r="B15" s="20"/>
       <c r="C15" s="23"/>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.5">
       <c r="B16" s="16" t="s">
         <v>80</v>
       </c>
@@ -4964,7 +4964,7 @@
       <c r="Q16" s="7"/>
       <c r="R16" s="7"/>
     </row>
-    <row r="17" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:18" x14ac:dyDescent="0.5">
       <c r="G17" s="4"/>
       <c r="H17" s="7"/>
       <c r="I17" s="7"/>
@@ -4978,7 +4978,7 @@
       <c r="Q17" s="7"/>
       <c r="R17" s="7"/>
     </row>
-    <row r="18" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:18" x14ac:dyDescent="0.5">
       <c r="B18" t="s">
         <v>81</v>
       </c>
@@ -5009,7 +5009,7 @@
       <c r="Q18" s="7"/>
       <c r="R18" s="7"/>
     </row>
-    <row r="19" spans="2:18" s="20" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:18" s="20" customFormat="1" ht="71.7" x14ac:dyDescent="0.5">
       <c r="B19" s="20">
         <v>1</v>
       </c>
@@ -5030,7 +5030,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="20" spans="2:18" s="20" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:18" s="20" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
       <c r="B20" s="20">
         <v>2</v>
       </c>
@@ -5051,7 +5051,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="21" spans="2:18" s="20" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:18" s="20" customFormat="1" ht="43" x14ac:dyDescent="0.5">
       <c r="B21" s="20">
         <v>3</v>
       </c>
@@ -5072,7 +5072,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="22" spans="2:18" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:18" s="20" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B22" s="20">
         <v>4</v>
       </c>
@@ -5093,7 +5093,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="23" spans="2:18" s="20" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:18" s="20" customFormat="1" ht="43" x14ac:dyDescent="0.5">
       <c r="B23" s="20">
         <v>5</v>
       </c>
@@ -5114,7 +5114,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="24" spans="2:18" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:18" s="20" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B24" s="20">
         <v>6</v>
       </c>
@@ -5135,7 +5135,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="25" spans="2:18" s="20" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:18" s="20" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
       <c r="B25" s="20">
         <v>7</v>
       </c>
@@ -5156,7 +5156,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="26" spans="2:18" s="20" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:18" s="20" customFormat="1" ht="71.7" x14ac:dyDescent="0.5">
       <c r="B26" s="20">
         <v>8</v>
       </c>
@@ -5177,7 +5177,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="27" spans="2:18" s="20" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:18" s="20" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
       <c r="B27" s="20">
         <v>9</v>
       </c>
@@ -5198,7 +5198,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="28" spans="2:18" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:18" s="20" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B28" s="20">
         <v>10</v>
       </c>
@@ -5219,7 +5219,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="29" spans="2:18" s="20" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:18" s="20" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
       <c r="B29" s="20">
         <v>11</v>
       </c>
@@ -5240,7 +5240,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="30" spans="2:18" s="20" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:18" s="20" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
       <c r="B30" s="20">
         <v>12</v>
       </c>
@@ -5259,7 +5259,7 @@
       </c>
       <c r="G30" s="23"/>
     </row>
-    <row r="31" spans="2:18" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:18" s="20" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B31" s="20">
         <v>13</v>
       </c>
@@ -5278,7 +5278,7 @@
       </c>
       <c r="G31" s="23"/>
     </row>
-    <row r="32" spans="2:18" s="20" customFormat="1" ht="195" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:18" s="20" customFormat="1" ht="157.69999999999999" x14ac:dyDescent="0.5">
       <c r="B32" s="20">
         <v>14</v>
       </c>
@@ -5299,7 +5299,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="33" spans="2:7" s="20" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:7" s="20" customFormat="1" ht="43" x14ac:dyDescent="0.5">
       <c r="B33" s="20">
         <v>15</v>
       </c>
@@ -5320,7 +5320,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="34" spans="2:7" s="20" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:7" s="20" customFormat="1" ht="86" x14ac:dyDescent="0.5">
       <c r="B34" s="20">
         <v>16</v>
       </c>
@@ -5341,7 +5341,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="35" spans="2:7" s="20" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:7" s="20" customFormat="1" ht="43" x14ac:dyDescent="0.5">
       <c r="B35" s="20">
         <v>17</v>
       </c>
@@ -5362,7 +5362,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="36" spans="2:7" s="20" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:7" s="20" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
       <c r="B36" s="20">
         <v>18</v>
       </c>
@@ -5383,7 +5383,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="37" spans="2:7" s="20" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:7" s="20" customFormat="1" ht="57.35" x14ac:dyDescent="0.5">
       <c r="B37" s="20">
         <v>19</v>
       </c>
@@ -5404,7 +5404,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="38" spans="2:7" s="20" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:7" s="20" customFormat="1" ht="43" x14ac:dyDescent="0.5">
       <c r="B38" s="20">
         <v>20</v>
       </c>
@@ -5425,7 +5425,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="39" spans="2:7" s="20" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:7" s="20" customFormat="1" ht="43" x14ac:dyDescent="0.5">
       <c r="B39" s="20">
         <v>21</v>
       </c>
@@ -5444,7 +5444,7 @@
       </c>
       <c r="G39" s="23"/>
     </row>
-    <row r="40" spans="2:7" s="20" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:7" s="20" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
       <c r="B40" s="20">
         <v>22</v>
       </c>
@@ -5465,7 +5465,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="41" spans="2:7" s="20" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:7" s="20" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
       <c r="B41" s="20">
         <v>23</v>
       </c>
@@ -5486,7 +5486,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="42" spans="2:7" s="20" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:7" s="20" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
       <c r="B42" s="20">
         <v>24</v>
       </c>
@@ -5507,7 +5507,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="43" spans="2:7" s="20" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:7" s="20" customFormat="1" ht="57.35" x14ac:dyDescent="0.5">
       <c r="B43" s="20">
         <v>25</v>
       </c>
@@ -5528,7 +5528,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="44" spans="2:7" s="20" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:7" s="20" customFormat="1" ht="114.7" x14ac:dyDescent="0.5">
       <c r="B44" s="20">
         <v>26</v>
       </c>
@@ -5549,7 +5549,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="45" spans="2:7" s="20" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:7" s="20" customFormat="1" ht="43" x14ac:dyDescent="0.5">
       <c r="B45" s="20">
         <v>27</v>
       </c>
@@ -5568,7 +5568,7 @@
       </c>
       <c r="G45" s="23"/>
     </row>
-    <row r="46" spans="2:7" s="20" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:7" s="20" customFormat="1" ht="43" x14ac:dyDescent="0.5">
       <c r="B46" s="20">
         <v>28</v>
       </c>
@@ -5589,7 +5589,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="47" spans="2:7" s="20" customFormat="1" ht="135" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:7" s="20" customFormat="1" ht="114.7" x14ac:dyDescent="0.5">
       <c r="B47" s="20">
         <v>29</v>
       </c>
@@ -5610,7 +5610,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="48" spans="2:7" s="20" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:7" s="20" customFormat="1" ht="43" x14ac:dyDescent="0.5">
       <c r="B48" s="20">
         <v>30</v>
       </c>
@@ -5629,7 +5629,7 @@
       </c>
       <c r="G48" s="23"/>
     </row>
-    <row r="49" spans="2:12" s="20" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:12" s="20" customFormat="1" ht="57.35" x14ac:dyDescent="0.5">
       <c r="B49" s="20">
         <v>31</v>
       </c>
@@ -5648,7 +5648,7 @@
       </c>
       <c r="G49" s="23"/>
     </row>
-    <row r="50" spans="2:12" s="20" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:12" s="20" customFormat="1" ht="43" x14ac:dyDescent="0.5">
       <c r="B50" s="20">
         <v>32</v>
       </c>
@@ -5669,7 +5669,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="51" spans="2:12" s="20" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:12" s="20" customFormat="1" ht="43" x14ac:dyDescent="0.5">
       <c r="B51" s="20">
         <v>33</v>
       </c>
@@ -5688,7 +5688,7 @@
       </c>
       <c r="G51" s="23"/>
     </row>
-    <row r="52" spans="2:12" s="20" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:12" s="20" customFormat="1" ht="43" x14ac:dyDescent="0.5">
       <c r="B52" s="20">
         <v>34</v>
       </c>
@@ -5709,7 +5709,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="53" spans="2:12" s="20" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:12" s="20" customFormat="1" ht="43" x14ac:dyDescent="0.5">
       <c r="B53" s="20">
         <v>35</v>
       </c>
@@ -5728,7 +5728,7 @@
       </c>
       <c r="G53" s="23"/>
     </row>
-    <row r="54" spans="2:12" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:12" s="20" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B54" s="20">
         <v>36</v>
       </c>
@@ -5749,7 +5749,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="55" spans="2:12" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:12" s="20" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B55" s="20">
         <v>37</v>
       </c>
@@ -5768,7 +5768,7 @@
       </c>
       <c r="G55" s="23"/>
     </row>
-    <row r="56" spans="2:12" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:12" s="20" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B56" s="20">
         <v>38</v>
       </c>
@@ -5784,7 +5784,7 @@
       </c>
       <c r="G56" s="23"/>
     </row>
-    <row r="57" spans="2:12" s="20" customFormat="1" ht="60" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:12" s="20" customFormat="1" ht="43" x14ac:dyDescent="0.55000000000000004">
       <c r="B57" s="20">
         <v>39</v>
       </c>
@@ -5804,7 +5804,7 @@
       <c r="G57" s="23"/>
       <c r="L57" s="27"/>
     </row>
-    <row r="58" spans="2:12" s="20" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:12" s="20" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
       <c r="B58" s="20">
         <v>40</v>
       </c>
@@ -5825,7 +5825,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="59" spans="2:12" s="20" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:12" s="20" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
       <c r="B59" s="20">
         <v>41</v>
       </c>
@@ -5846,7 +5846,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="60" spans="2:12" s="20" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:12" s="20" customFormat="1" ht="43" x14ac:dyDescent="0.5">
       <c r="B60" s="20">
         <v>42</v>
       </c>
@@ -5867,7 +5867,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="61" spans="2:12" s="20" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:12" s="20" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
       <c r="B61" s="20">
         <v>43</v>
       </c>
@@ -5888,7 +5888,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="62" spans="2:12" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:12" s="20" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B62" s="20">
         <v>44</v>
       </c>
@@ -5907,7 +5907,7 @@
       </c>
       <c r="G62" s="23"/>
     </row>
-    <row r="63" spans="2:12" s="20" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:12" s="20" customFormat="1" ht="43" x14ac:dyDescent="0.5">
       <c r="B63" s="20">
         <v>45</v>
       </c>
@@ -5926,7 +5926,7 @@
       </c>
       <c r="G63" s="23"/>
     </row>
-    <row r="64" spans="2:12" s="20" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:12" s="20" customFormat="1" ht="43" x14ac:dyDescent="0.5">
       <c r="B64" s="20">
         <v>46</v>
       </c>
@@ -5945,7 +5945,7 @@
       </c>
       <c r="G64" s="23"/>
     </row>
-    <row r="65" spans="2:7" s="20" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:7" s="20" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B65" s="20">
         <v>47</v>
       </c>
@@ -5964,7 +5964,7 @@
       </c>
       <c r="G65" s="23"/>
     </row>
-    <row r="66" spans="2:7" s="20" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:7" s="20" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
       <c r="B66" s="20">
         <v>48</v>
       </c>
@@ -5985,7 +5985,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="67" spans="2:7" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:7" s="20" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B67" s="20">
         <v>49</v>
       </c>
@@ -6004,7 +6004,7 @@
       </c>
       <c r="G67" s="23"/>
     </row>
-    <row r="68" spans="2:7" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:7" s="20" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B68" s="20">
         <v>50</v>
       </c>
@@ -6023,7 +6023,7 @@
       </c>
       <c r="G68" s="23"/>
     </row>
-    <row r="69" spans="2:7" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:7" s="20" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B69" s="20">
         <v>51</v>
       </c>
@@ -6042,7 +6042,7 @@
       </c>
       <c r="G69" s="23"/>
     </row>
-    <row r="70" spans="2:7" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:7" s="20" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B70" s="20">
         <v>52</v>
       </c>
@@ -6061,7 +6061,7 @@
       </c>
       <c r="G70" s="23"/>
     </row>
-    <row r="71" spans="2:7" s="20" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:7" s="20" customFormat="1" ht="43" x14ac:dyDescent="0.5">
       <c r="B71" s="20">
         <v>53</v>
       </c>
@@ -6082,7 +6082,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="72" spans="2:7" s="20" customFormat="1" ht="135" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:7" s="20" customFormat="1" ht="114.7" x14ac:dyDescent="0.5">
       <c r="B72" s="20">
         <v>54</v>
       </c>
@@ -6103,7 +6103,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="73" spans="2:7" s="20" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:7" s="20" customFormat="1" ht="43" x14ac:dyDescent="0.5">
       <c r="B73" s="20">
         <v>55</v>
       </c>
@@ -6124,7 +6124,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="74" spans="2:7" s="20" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:7" s="20" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
       <c r="B74" s="20">
         <v>56</v>
       </c>
@@ -6145,7 +6145,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="75" spans="2:7" s="20" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:7" s="20" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
       <c r="B75" s="20">
         <v>57</v>
       </c>
@@ -6166,7 +6166,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="76" spans="2:7" s="20" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:7" s="20" customFormat="1" ht="43" x14ac:dyDescent="0.5">
       <c r="B76" s="20">
         <v>58</v>
       </c>
@@ -6187,7 +6187,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="77" spans="2:7" s="20" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:7" s="20" customFormat="1" ht="71.7" x14ac:dyDescent="0.5">
       <c r="B77" s="20">
         <v>59</v>
       </c>
@@ -6208,7 +6208,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="78" spans="2:7" s="20" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:7" s="20" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
       <c r="B78" s="20">
         <v>60</v>
       </c>
@@ -6229,7 +6229,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="79" spans="2:7" s="20" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:7" s="20" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
       <c r="B79" s="20">
         <v>61</v>
       </c>
@@ -6250,7 +6250,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="80" spans="2:7" s="20" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:7" s="20" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
       <c r="B80" s="20">
         <v>62</v>
       </c>
@@ -6269,7 +6269,7 @@
       </c>
       <c r="G80" s="23"/>
     </row>
-    <row r="81" spans="2:7" s="20" customFormat="1" ht="210" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:7" s="20" customFormat="1" ht="172" x14ac:dyDescent="0.5">
       <c r="B81" s="20">
         <v>63</v>
       </c>
@@ -6290,7 +6290,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="82" spans="2:7" s="20" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:7" s="20" customFormat="1" ht="43" x14ac:dyDescent="0.5">
       <c r="B82" s="20">
         <v>64</v>
       </c>
@@ -6311,7 +6311,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="83" spans="2:7" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:7" s="20" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B83" s="20">
         <v>65</v>
       </c>
@@ -6330,7 +6330,7 @@
       </c>
       <c r="G83" s="23"/>
     </row>
-    <row r="84" spans="2:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:7" ht="43" x14ac:dyDescent="0.5">
       <c r="B84" s="20">
         <v>66</v>
       </c>
@@ -6351,7 +6351,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="85" spans="2:7" s="20" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:7" s="20" customFormat="1" ht="43" x14ac:dyDescent="0.5">
       <c r="B85" s="20">
         <v>67</v>
       </c>
@@ -6370,7 +6370,7 @@
       </c>
       <c r="G85" s="23"/>
     </row>
-    <row r="86" spans="2:7" s="20" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:7" s="20" customFormat="1" ht="43" x14ac:dyDescent="0.5">
       <c r="B86" s="20">
         <v>68</v>
       </c>
@@ -6391,7 +6391,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="87" spans="2:7" s="20" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:7" s="20" customFormat="1" ht="71.7" x14ac:dyDescent="0.5">
       <c r="B87" s="20">
         <v>69</v>
       </c>
@@ -6412,7 +6412,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="88" spans="2:7" s="20" customFormat="1" ht="285" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:7" s="20" customFormat="1" ht="229.35" x14ac:dyDescent="0.5">
       <c r="B88" s="20">
         <v>70</v>
       </c>
@@ -6433,7 +6433,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="89" spans="2:7" s="20" customFormat="1" ht="300" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:7" s="20" customFormat="1" ht="258" x14ac:dyDescent="0.5">
       <c r="B89" s="20" t="s">
         <v>214</v>
       </c>
@@ -6454,7 +6454,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="90" spans="2:7" s="20" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:7" s="20" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B90" s="20" t="s">
         <v>217</v>
       </c>
@@ -6475,7 +6475,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="91" spans="2:7" s="20" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:7" s="20" customFormat="1" ht="43" x14ac:dyDescent="0.5">
       <c r="B91" s="20" t="s">
         <v>220</v>
       </c>
@@ -6494,7 +6494,7 @@
       </c>
       <c r="G91" s="49"/>
     </row>
-    <row r="92" spans="2:7" s="20" customFormat="1" ht="210" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:7" s="20" customFormat="1" ht="186.35" x14ac:dyDescent="0.5">
       <c r="B92" s="20">
         <v>71</v>
       </c>
@@ -6515,7 +6515,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="93" spans="2:7" s="20" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:7" s="20" customFormat="1" ht="43" x14ac:dyDescent="0.5">
       <c r="B93" s="20">
         <v>71</v>
       </c>
@@ -6536,7 +6536,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="94" spans="2:7" s="20" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:7" s="20" customFormat="1" ht="57.35" x14ac:dyDescent="0.5">
       <c r="B94" s="20">
         <v>72</v>
       </c>
@@ -6557,7 +6557,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="95" spans="2:7" s="20" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:7" s="20" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B95" s="20">
         <v>73</v>
       </c>
@@ -6576,7 +6576,7 @@
       </c>
       <c r="G95" s="23"/>
     </row>
-    <row r="96" spans="2:7" s="20" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:7" s="20" customFormat="1" ht="57.35" x14ac:dyDescent="0.5">
       <c r="B96" s="20">
         <v>74</v>
       </c>
@@ -6597,7 +6597,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="97" spans="2:7" s="20" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:7" s="20" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B97" s="20">
         <v>75</v>
       </c>
@@ -6616,7 +6616,7 @@
       </c>
       <c r="G97" s="23"/>
     </row>
-    <row r="98" spans="2:7" s="20" customFormat="1" ht="150" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:7" s="20" customFormat="1" ht="129" x14ac:dyDescent="0.5">
       <c r="B98" s="20">
         <v>76</v>
       </c>
@@ -6637,7 +6637,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="99" spans="2:7" s="20" customFormat="1" ht="390" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:7" s="20" customFormat="1" ht="329.7" x14ac:dyDescent="0.5">
       <c r="B99" s="20">
         <v>77</v>
       </c>
@@ -6658,7 +6658,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="100" spans="2:7" s="20" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:7" s="20" customFormat="1" ht="71.7" x14ac:dyDescent="0.5">
       <c r="B100" s="20">
         <v>78</v>
       </c>
@@ -6679,7 +6679,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="101" spans="2:7" s="20" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:7" s="20" customFormat="1" ht="71.7" x14ac:dyDescent="0.5">
       <c r="B101" s="20">
         <v>79</v>
       </c>
@@ -6700,7 +6700,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="102" spans="2:7" s="20" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:7" s="20" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
       <c r="B102" s="20">
         <v>80</v>
       </c>
@@ -6721,7 +6721,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="103" spans="2:7" s="20" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:7" s="20" customFormat="1" ht="86" x14ac:dyDescent="0.5">
       <c r="B103" s="20">
         <v>81</v>
       </c>
@@ -6742,7 +6742,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="104" spans="2:7" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:7" s="20" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B104" s="20">
         <v>82</v>
       </c>
@@ -6761,7 +6761,7 @@
       </c>
       <c r="G104" s="23"/>
     </row>
-    <row r="105" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:7" x14ac:dyDescent="0.5">
       <c r="B105" s="20">
         <v>83</v>
       </c>
@@ -6780,7 +6780,7 @@
       </c>
       <c r="G105" s="23"/>
     </row>
-    <row r="106" spans="2:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:7" ht="71.7" x14ac:dyDescent="0.5">
       <c r="B106" s="20">
         <v>84</v>
       </c>
@@ -6801,7 +6801,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="107" spans="2:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:7" ht="43" x14ac:dyDescent="0.5">
       <c r="B107" s="20">
         <v>85</v>
       </c>
@@ -6820,7 +6820,7 @@
       </c>
       <c r="G107" s="23"/>
     </row>
-    <row r="108" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:7" x14ac:dyDescent="0.5">
       <c r="B108" s="20">
         <v>86</v>
       </c>
@@ -6839,7 +6839,7 @@
       </c>
       <c r="G108" s="23"/>
     </row>
-    <row r="109" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:7" x14ac:dyDescent="0.5">
       <c r="B109" s="20">
         <v>87</v>
       </c>
@@ -6860,7 +6860,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="110" spans="2:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:7" ht="28.7" x14ac:dyDescent="0.5">
       <c r="B110" s="20">
         <v>88</v>
       </c>
@@ -6879,7 +6879,7 @@
       </c>
       <c r="G110" s="23"/>
     </row>
-    <row r="111" spans="2:7" s="20" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:7" s="20" customFormat="1" ht="71.7" x14ac:dyDescent="0.5">
       <c r="B111" s="20">
         <v>89</v>
       </c>
@@ -6900,7 +6900,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="112" spans="2:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:7" ht="28.7" x14ac:dyDescent="0.5">
       <c r="B112" s="20">
         <v>90</v>
       </c>
@@ -6919,7 +6919,7 @@
       </c>
       <c r="G112" s="23"/>
     </row>
-    <row r="113" spans="2:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:7" ht="28.7" x14ac:dyDescent="0.5">
       <c r="B113" s="20">
         <v>91</v>
       </c>
@@ -6938,7 +6938,7 @@
       </c>
       <c r="G113" s="23"/>
     </row>
-    <row r="114" spans="2:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:7" ht="43" x14ac:dyDescent="0.5">
       <c r="B114" s="20">
         <v>92</v>
       </c>
@@ -6957,7 +6957,7 @@
       </c>
       <c r="G114" s="23"/>
     </row>
-    <row r="115" spans="2:7" ht="135" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:7" ht="114.7" x14ac:dyDescent="0.5">
       <c r="B115" s="20">
         <v>93</v>
       </c>
@@ -6978,7 +6978,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="116" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:7" ht="28.7" x14ac:dyDescent="0.5">
       <c r="B116" s="20">
         <v>94</v>
       </c>
@@ -6997,7 +6997,7 @@
       </c>
       <c r="G116" s="23"/>
     </row>
-    <row r="117" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:7" x14ac:dyDescent="0.5">
       <c r="B117" s="20">
         <v>95</v>
       </c>
@@ -7007,7 +7007,7 @@
       <c r="F117" s="23"/>
       <c r="G117" s="23"/>
     </row>
-    <row r="118" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:7" x14ac:dyDescent="0.5">
       <c r="B118" s="20">
         <v>96</v>
       </c>
@@ -7017,7 +7017,7 @@
       <c r="F118" s="23"/>
       <c r="G118" s="23"/>
     </row>
-    <row r="119" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:7" x14ac:dyDescent="0.5">
       <c r="B119" s="20">
         <v>97</v>
       </c>
@@ -7027,7 +7027,7 @@
       <c r="F119" s="23"/>
       <c r="G119" s="23"/>
     </row>
-    <row r="120" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:7" x14ac:dyDescent="0.5">
       <c r="B120" s="20">
         <v>98</v>
       </c>
@@ -7037,7 +7037,7 @@
       <c r="F120" s="23"/>
       <c r="G120" s="23"/>
     </row>
-    <row r="121" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:7" x14ac:dyDescent="0.5">
       <c r="B121" s="20">
         <v>99</v>
       </c>
@@ -7047,7 +7047,7 @@
       <c r="F121" s="23"/>
       <c r="G121" s="23"/>
     </row>
-    <row r="122" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:7" x14ac:dyDescent="0.5">
       <c r="B122" s="20">
         <v>100</v>
       </c>
@@ -7081,21 +7081,21 @@
       <selection activeCell="G116" sqref="G116"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="3.7109375" customWidth="1"/>
-    <col min="2" max="2" width="92.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="37.140625" customWidth="1"/>
-    <col min="4" max="5" width="16.7109375" customWidth="1"/>
-    <col min="6" max="17" width="16.7109375" style="7" customWidth="1"/>
+    <col min="1" max="1" width="3.703125" customWidth="1"/>
+    <col min="2" max="2" width="92.29296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.1171875" customWidth="1"/>
+    <col min="4" max="5" width="16.703125" customWidth="1"/>
+    <col min="6" max="17" width="16.703125" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:17" s="55" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:17" s="55" customFormat="1" ht="20.7" x14ac:dyDescent="0.7">
       <c r="B2" s="55" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
         <v>67</v>
       </c>
@@ -7115,7 +7115,7 @@
       <c r="P4"/>
       <c r="Q4"/>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
         <v>67</v>
       </c>
@@ -7134,7 +7134,7 @@
       <c r="P5"/>
       <c r="Q5"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
         <v>67</v>
       </c>
@@ -7153,7 +7153,7 @@
       <c r="P6"/>
       <c r="Q6"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.5">
       <c r="G7"/>
       <c r="H7"/>
       <c r="I7"/>
@@ -7166,12 +7166,12 @@
       <c r="P7"/>
       <c r="Q7"/>
     </row>
-    <row r="8" spans="1:17" s="56" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:17" s="56" customFormat="1" ht="20.7" x14ac:dyDescent="0.7">
       <c r="B8" s="56" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.5">
       <c r="G9"/>
       <c r="H9"/>
       <c r="I9"/>
@@ -7184,7 +7184,7 @@
       <c r="P9"/>
       <c r="Q9"/>
     </row>
-    <row r="10" spans="1:17" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" s="16" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B10" s="16" t="s">
         <v>264</v>
       </c>
@@ -7206,7 +7206,7 @@
       <c r="P10" s="57"/>
       <c r="Q10" s="57"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.5">
       <c r="B11" t="s">
         <v>267</v>
       </c>
@@ -7220,7 +7220,7 @@
       </c>
       <c r="G11"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.5">
       <c r="B12" t="s">
         <v>268</v>
       </c>
@@ -7234,7 +7234,7 @@
       </c>
       <c r="G12"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.5">
       <c r="B13" t="s">
         <v>269</v>
       </c>
@@ -7248,80 +7248,80 @@
       </c>
       <c r="G13"/>
     </row>
-    <row r="15" spans="1:17" s="56" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:17" s="56" customFormat="1" ht="20.7" x14ac:dyDescent="0.7">
       <c r="B15" s="56" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.5">
       <c r="B17" s="16" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.5">
       <c r="B19" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.5">
       <c r="B20" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.5">
       <c r="B22" s="16" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.5">
       <c r="B23" s="16"/>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.5">
       <c r="B24" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.5">
       <c r="B25" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:2" x14ac:dyDescent="0.5">
       <c r="B26" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:2" x14ac:dyDescent="0.5">
       <c r="B28" s="16" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:2" x14ac:dyDescent="0.5">
       <c r="B30" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:2" x14ac:dyDescent="0.5">
       <c r="B31" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:2" x14ac:dyDescent="0.5">
       <c r="B32" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:17" x14ac:dyDescent="0.5">
       <c r="B33" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:17" x14ac:dyDescent="0.5">
       <c r="B35" s="16" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.5">
       <c r="B37" t="str">
         <f t="shared" ref="B37:B43" si="0">D38</f>
         <v>Gas Collection System Component (e.g., blower, well, valve, port)</v>
@@ -7340,7 +7340,7 @@
       <c r="P37"/>
       <c r="Q37"/>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.5">
       <c r="B38" t="str">
         <f t="shared" si="0"/>
         <v>Gas Control Device/Control System Component</v>
@@ -7359,7 +7359,7 @@
       <c r="P38"/>
       <c r="Q38"/>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.5">
       <c r="B39" t="str">
         <f t="shared" si="0"/>
         <v>Landfill Surface: Daily Cover</v>
@@ -7377,7 +7377,7 @@
       <c r="P39"/>
       <c r="Q39"/>
     </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:17" x14ac:dyDescent="0.5">
       <c r="B40" t="str">
         <f t="shared" si="0"/>
         <v>Landfill Surface: Final Cover</v>
@@ -7395,7 +7395,7 @@
       <c r="P40"/>
       <c r="Q40"/>
     </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:17" x14ac:dyDescent="0.5">
       <c r="B41" t="str">
         <f t="shared" si="0"/>
         <v>Landfill Surface: Intermediate Cover</v>
@@ -7413,7 +7413,7 @@
       <c r="P41"/>
       <c r="Q41"/>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:17" x14ac:dyDescent="0.5">
       <c r="B42" t="str">
         <f t="shared" si="0"/>
         <v>Leachate Management System</v>
@@ -7431,7 +7431,7 @@
       <c r="P42"/>
       <c r="Q42"/>
     </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:17" x14ac:dyDescent="0.5">
       <c r="B43" t="str">
         <f t="shared" si="0"/>
         <v>Working Face (area where active filling was being conducted at the time of detection)</v>
@@ -7449,25 +7449,25 @@
       <c r="P43"/>
       <c r="Q43"/>
     </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:17" x14ac:dyDescent="0.5">
       <c r="D44" s="7" t="str">
         <v>Working Face (area where active filling was being conducted at the time of detection)</v>
       </c>
     </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:17" x14ac:dyDescent="0.5">
       <c r="B45" s="16" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:17" x14ac:dyDescent="0.5">
       <c r="B46" s="16"/>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:17" x14ac:dyDescent="0.5">
       <c r="B47" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="48" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B48" s="51" t="str" cm="1">
         <f t="array" ref="B48:B58">_xlfn._xlws.SORT(_xlfn.UNIQUE(_xlfn.TOCOL(C64:M70, 1)))</f>
         <v>Collection system downtime</v>
@@ -7475,89 +7475,89 @@
       <c r="E48" s="7"/>
       <c r="Q48"/>
     </row>
-    <row r="49" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B49" s="53" t="str">
         <v>Construction - New Well Installation</v>
       </c>
       <c r="E49" s="7"/>
       <c r="Q49"/>
     </row>
-    <row r="50" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B50" s="54" t="str">
         <v>Construction - Well Raising or Horizontal Extension</v>
       </c>
       <c r="E50" s="7"/>
       <c r="Q50"/>
     </row>
-    <row r="51" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B51" s="52" t="str">
         <v>Cover integrity</v>
       </c>
       <c r="E51" s="7"/>
       <c r="Q51"/>
     </row>
-    <row r="52" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B52" s="51" t="str">
         <v>Cover-related Construction (Excavation/ Exposed Operations/ Re-grading)</v>
       </c>
       <c r="E52" s="7"/>
       <c r="Q52"/>
     </row>
-    <row r="53" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B53" s="52" t="str">
         <v>Cracked/Broken Seal</v>
       </c>
       <c r="E53" s="7"/>
       <c r="Q53"/>
     </row>
-    <row r="54" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B54" s="51" t="str">
         <v>Damaged component</v>
       </c>
       <c r="E54" s="7"/>
       <c r="Q54"/>
     </row>
-    <row r="55" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B55" s="51" t="str">
         <v>Insufficient vacuum</v>
       </c>
       <c r="E55" s="7"/>
       <c r="Q55"/>
     </row>
-    <row r="56" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B56" s="53" t="str">
         <v>Offline Gas Collection Well(s)</v>
       </c>
       <c r="E56" s="7"/>
       <c r="Q56"/>
     </row>
-    <row r="57" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B57" s="54" t="str">
         <v>Other</v>
       </c>
       <c r="E57" s="7"/>
       <c r="Q57"/>
     </row>
-    <row r="58" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B58" s="52" t="str">
         <v>Uncontrolled Area (no gas collection infrastructure)</v>
       </c>
       <c r="E58" s="7"/>
       <c r="Q58"/>
     </row>
-    <row r="60" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:17" x14ac:dyDescent="0.5">
       <c r="B60" s="16" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="61" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:17" x14ac:dyDescent="0.5">
       <c r="C61" s="7"/>
       <c r="D61" s="7"/>
       <c r="E61" s="12" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="62" spans="2:17" ht="21" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:17" ht="20.7" x14ac:dyDescent="0.7">
       <c r="B62" s="3" t="s">
         <v>288</v>
       </c>
@@ -7565,7 +7565,7 @@
       <c r="D62" s="7"/>
       <c r="E62" s="7"/>
     </row>
-    <row r="63" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:17" ht="15.7" x14ac:dyDescent="0.55000000000000004">
       <c r="B63" s="2" t="s">
         <v>289</v>
       </c>
@@ -7575,7 +7575,7 @@
       <c r="D63" s="7"/>
       <c r="E63" s="7"/>
     </row>
-    <row r="64" spans="2:17" ht="59.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:17" ht="59.7" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B64" s="6" t="s">
         <v>291</v>
       </c>
@@ -7603,7 +7603,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="65" spans="2:13" ht="59.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:13" ht="59.7" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B65" s="10" t="s">
         <v>298</v>
       </c>
@@ -7641,7 +7641,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="66" spans="2:13" ht="59.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:13" ht="59.7" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B66" s="10" t="s">
         <v>304</v>
       </c>
@@ -7679,7 +7679,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="67" spans="2:13" ht="59.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:13" ht="59.7" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B67" s="6" t="s">
         <v>305</v>
       </c>
@@ -7715,7 +7715,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="68" spans="2:13" ht="59.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:13" ht="59.7" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B68" s="10" t="s">
         <v>306</v>
       </c>
@@ -7739,7 +7739,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="69" spans="2:13" ht="59.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:13" ht="59.7" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B69" s="10" t="s">
         <v>307</v>
       </c>
@@ -7769,7 +7769,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="70" spans="2:13" ht="59.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:13" ht="59.7" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B70" s="6" t="s">
         <v>308</v>
       </c>
@@ -7791,12 +7791,12 @@
         <v>297</v>
       </c>
     </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:13" x14ac:dyDescent="0.5">
       <c r="B72" s="16" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:13" x14ac:dyDescent="0.5">
       <c r="B74" t="str" cm="1">
         <f t="array" ref="B74:C125">_xlfn.HSTACK(_xlfn.TOCOL(_xlfn.IFS(C64:M70&lt;&gt;"",B64:B70),3),_xlfn.TOCOL(C64:M70,1))</f>
         <v>Working Face (area where active filling was being conducted at the time of detection)</v>
@@ -7806,7 +7806,7 @@
       </c>
       <c r="G74"/>
     </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:13" x14ac:dyDescent="0.5">
       <c r="B75" t="str">
         <v>Working Face (area where active filling was being conducted at the time of detection)</v>
       </c>
@@ -7815,7 +7815,7 @@
       </c>
       <c r="G75"/>
     </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:13" x14ac:dyDescent="0.5">
       <c r="B76" t="str">
         <v>Working Face (area where active filling was being conducted at the time of detection)</v>
       </c>
@@ -7824,7 +7824,7 @@
       </c>
       <c r="G76"/>
     </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:13" x14ac:dyDescent="0.5">
       <c r="B77" t="str">
         <v>Working Face (area where active filling was being conducted at the time of detection)</v>
       </c>
@@ -7833,7 +7833,7 @@
       </c>
       <c r="G77"/>
     </row>
-    <row r="78" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:13" x14ac:dyDescent="0.5">
       <c r="B78" t="str">
         <v>Working Face (area where active filling was being conducted at the time of detection)</v>
       </c>
@@ -7842,7 +7842,7 @@
       </c>
       <c r="G78"/>
     </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:13" x14ac:dyDescent="0.5">
       <c r="B79" t="str">
         <v>Working Face (area where active filling was being conducted at the time of detection)</v>
       </c>
@@ -7851,7 +7851,7 @@
       </c>
       <c r="G79"/>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.5">
       <c r="B80" t="str">
         <v>Landfill Surface: Daily Cover</v>
       </c>
@@ -7860,7 +7860,7 @@
       </c>
       <c r="G80"/>
     </row>
-    <row r="81" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:7" x14ac:dyDescent="0.5">
       <c r="B81" t="str">
         <v>Landfill Surface: Daily Cover</v>
       </c>
@@ -7869,7 +7869,7 @@
       </c>
       <c r="G81"/>
     </row>
-    <row r="82" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:7" x14ac:dyDescent="0.5">
       <c r="B82" t="str">
         <v>Landfill Surface: Daily Cover</v>
       </c>
@@ -7878,7 +7878,7 @@
       </c>
       <c r="G82"/>
     </row>
-    <row r="83" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:7" x14ac:dyDescent="0.5">
       <c r="B83" t="str">
         <v>Landfill Surface: Daily Cover</v>
       </c>
@@ -7887,7 +7887,7 @@
       </c>
       <c r="G83"/>
     </row>
-    <row r="84" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:7" x14ac:dyDescent="0.5">
       <c r="B84" t="str">
         <v>Landfill Surface: Daily Cover</v>
       </c>
@@ -7896,7 +7896,7 @@
       </c>
       <c r="G84"/>
     </row>
-    <row r="85" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:7" x14ac:dyDescent="0.5">
       <c r="B85" t="str">
         <v>Landfill Surface: Daily Cover</v>
       </c>
@@ -7905,7 +7905,7 @@
       </c>
       <c r="G85"/>
     </row>
-    <row r="86" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:7" x14ac:dyDescent="0.5">
       <c r="B86" t="str">
         <v>Landfill Surface: Daily Cover</v>
       </c>
@@ -7914,7 +7914,7 @@
       </c>
       <c r="G86"/>
     </row>
-    <row r="87" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:7" x14ac:dyDescent="0.5">
       <c r="B87" t="str">
         <v>Landfill Surface: Daily Cover</v>
       </c>
@@ -7923,7 +7923,7 @@
       </c>
       <c r="G87"/>
     </row>
-    <row r="88" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:7" x14ac:dyDescent="0.5">
       <c r="B88" t="str">
         <v>Landfill Surface: Daily Cover</v>
       </c>
@@ -7932,7 +7932,7 @@
       </c>
       <c r="G88"/>
     </row>
-    <row r="89" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:7" x14ac:dyDescent="0.5">
       <c r="B89" t="str">
         <v>Landfill Surface: Daily Cover</v>
       </c>
@@ -7941,7 +7941,7 @@
       </c>
       <c r="G89"/>
     </row>
-    <row r="90" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:7" x14ac:dyDescent="0.5">
       <c r="B90" t="str">
         <v>Landfill Surface: Daily Cover</v>
       </c>
@@ -7950,7 +7950,7 @@
       </c>
       <c r="G90"/>
     </row>
-    <row r="91" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:7" x14ac:dyDescent="0.5">
       <c r="B91" t="str">
         <v>Landfill Surface: Intermediate Cover</v>
       </c>
@@ -7959,7 +7959,7 @@
       </c>
       <c r="G91"/>
     </row>
-    <row r="92" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:7" x14ac:dyDescent="0.5">
       <c r="B92" t="str">
         <v>Landfill Surface: Intermediate Cover</v>
       </c>
@@ -7968,7 +7968,7 @@
       </c>
       <c r="G92"/>
     </row>
-    <row r="93" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:7" x14ac:dyDescent="0.5">
       <c r="B93" t="str">
         <v>Landfill Surface: Intermediate Cover</v>
       </c>
@@ -7977,7 +7977,7 @@
       </c>
       <c r="G93"/>
     </row>
-    <row r="94" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:7" x14ac:dyDescent="0.5">
       <c r="B94" t="str">
         <v>Landfill Surface: Intermediate Cover</v>
       </c>
@@ -7986,7 +7986,7 @@
       </c>
       <c r="G94"/>
     </row>
-    <row r="95" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:7" x14ac:dyDescent="0.5">
       <c r="B95" t="str">
         <v>Landfill Surface: Intermediate Cover</v>
       </c>
@@ -7995,7 +7995,7 @@
       </c>
       <c r="G95"/>
     </row>
-    <row r="96" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:7" x14ac:dyDescent="0.5">
       <c r="B96" t="str">
         <v>Landfill Surface: Intermediate Cover</v>
       </c>
@@ -8004,7 +8004,7 @@
       </c>
       <c r="G96"/>
     </row>
-    <row r="97" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:7" x14ac:dyDescent="0.5">
       <c r="B97" t="str">
         <v>Landfill Surface: Intermediate Cover</v>
       </c>
@@ -8013,7 +8013,7 @@
       </c>
       <c r="G97"/>
     </row>
-    <row r="98" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:7" x14ac:dyDescent="0.5">
       <c r="B98" t="str">
         <v>Landfill Surface: Intermediate Cover</v>
       </c>
@@ -8022,7 +8022,7 @@
       </c>
       <c r="G98"/>
     </row>
-    <row r="99" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:7" x14ac:dyDescent="0.5">
       <c r="B99" t="str">
         <v>Landfill Surface: Intermediate Cover</v>
       </c>
@@ -8031,7 +8031,7 @@
       </c>
       <c r="G99"/>
     </row>
-    <row r="100" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:7" x14ac:dyDescent="0.5">
       <c r="B100" t="str">
         <v>Landfill Surface: Intermediate Cover</v>
       </c>
@@ -8040,7 +8040,7 @@
       </c>
       <c r="G100"/>
     </row>
-    <row r="101" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:7" x14ac:dyDescent="0.5">
       <c r="B101" t="str">
         <v>Landfill Surface: Intermediate Cover</v>
       </c>
@@ -8049,7 +8049,7 @@
       </c>
       <c r="G101"/>
     </row>
-    <row r="102" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:7" x14ac:dyDescent="0.5">
       <c r="B102" t="str">
         <v>Landfill Surface: Final Cover</v>
       </c>
@@ -8058,7 +8058,7 @@
       </c>
       <c r="G102"/>
     </row>
-    <row r="103" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:7" x14ac:dyDescent="0.5">
       <c r="B103" t="str">
         <v>Landfill Surface: Final Cover</v>
       </c>
@@ -8067,7 +8067,7 @@
       </c>
       <c r="G103"/>
     </row>
-    <row r="104" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:7" x14ac:dyDescent="0.5">
       <c r="B104" t="str">
         <v>Landfill Surface: Final Cover</v>
       </c>
@@ -8076,7 +8076,7 @@
       </c>
       <c r="G104"/>
     </row>
-    <row r="105" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:7" x14ac:dyDescent="0.5">
       <c r="B105" t="str">
         <v>Landfill Surface: Final Cover</v>
       </c>
@@ -8085,7 +8085,7 @@
       </c>
       <c r="G105"/>
     </row>
-    <row r="106" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:7" x14ac:dyDescent="0.5">
       <c r="B106" t="str">
         <v>Landfill Surface: Final Cover</v>
       </c>
@@ -8094,7 +8094,7 @@
       </c>
       <c r="G106"/>
     </row>
-    <row r="107" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:7" x14ac:dyDescent="0.5">
       <c r="B107" t="str">
         <v>Landfill Surface: Final Cover</v>
       </c>
@@ -8103,7 +8103,7 @@
       </c>
       <c r="G107"/>
     </row>
-    <row r="108" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:7" x14ac:dyDescent="0.5">
       <c r="B108" t="str">
         <v>Landfill Surface: Final Cover</v>
       </c>
@@ -8112,7 +8112,7 @@
       </c>
       <c r="G108"/>
     </row>
-    <row r="109" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:7" x14ac:dyDescent="0.5">
       <c r="B109" t="str">
         <v>Landfill Surface: Final Cover</v>
       </c>
@@ -8121,7 +8121,7 @@
       </c>
       <c r="G109"/>
     </row>
-    <row r="110" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:7" x14ac:dyDescent="0.5">
       <c r="B110" t="str">
         <v>Landfill Surface: Final Cover</v>
       </c>
@@ -8130,7 +8130,7 @@
       </c>
       <c r="G110"/>
     </row>
-    <row r="111" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:7" x14ac:dyDescent="0.5">
       <c r="B111" t="str">
         <v>Landfill Surface: Final Cover</v>
       </c>
@@ -8139,7 +8139,7 @@
       </c>
       <c r="G111"/>
     </row>
-    <row r="112" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:7" x14ac:dyDescent="0.5">
       <c r="B112" t="str">
         <v>Leachate Management System</v>
       </c>
@@ -8148,7 +8148,7 @@
       </c>
       <c r="G112"/>
     </row>
-    <row r="113" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:7" x14ac:dyDescent="0.5">
       <c r="B113" t="str">
         <v>Leachate Management System</v>
       </c>
@@ -8157,7 +8157,7 @@
       </c>
       <c r="G113"/>
     </row>
-    <row r="114" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:7" x14ac:dyDescent="0.5">
       <c r="B114" t="str">
         <v>Leachate Management System</v>
       </c>
@@ -8166,7 +8166,7 @@
       </c>
       <c r="G114"/>
     </row>
-    <row r="115" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:7" x14ac:dyDescent="0.5">
       <c r="B115" t="str">
         <v>Leachate Management System</v>
       </c>
@@ -8175,7 +8175,7 @@
       </c>
       <c r="G115"/>
     </row>
-    <row r="116" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:7" x14ac:dyDescent="0.5">
       <c r="B116" t="str">
         <v>Gas Collection System Component (e.g., blower, well, valve, port)</v>
       </c>
@@ -8184,7 +8184,7 @@
       </c>
       <c r="G116"/>
     </row>
-    <row r="117" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:7" x14ac:dyDescent="0.5">
       <c r="B117" t="str">
         <v>Gas Collection System Component (e.g., blower, well, valve, port)</v>
       </c>
@@ -8193,7 +8193,7 @@
       </c>
       <c r="G117"/>
     </row>
-    <row r="118" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:7" x14ac:dyDescent="0.5">
       <c r="B118" t="str">
         <v>Gas Collection System Component (e.g., blower, well, valve, port)</v>
       </c>
@@ -8202,7 +8202,7 @@
       </c>
       <c r="G118"/>
     </row>
-    <row r="119" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:7" x14ac:dyDescent="0.5">
       <c r="B119" t="str">
         <v>Gas Collection System Component (e.g., blower, well, valve, port)</v>
       </c>
@@ -8211,7 +8211,7 @@
       </c>
       <c r="G119"/>
     </row>
-    <row r="120" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:7" x14ac:dyDescent="0.5">
       <c r="B120" t="str">
         <v>Gas Collection System Component (e.g., blower, well, valve, port)</v>
       </c>
@@ -8220,7 +8220,7 @@
       </c>
       <c r="G120"/>
     </row>
-    <row r="121" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:7" x14ac:dyDescent="0.5">
       <c r="B121" t="str">
         <v>Gas Collection System Component (e.g., blower, well, valve, port)</v>
       </c>
@@ -8229,7 +8229,7 @@
       </c>
       <c r="G121"/>
     </row>
-    <row r="122" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:7" x14ac:dyDescent="0.5">
       <c r="B122" t="str">
         <v>Gas Collection System Component (e.g., blower, well, valve, port)</v>
       </c>
@@ -8238,7 +8238,7 @@
       </c>
       <c r="G122"/>
     </row>
-    <row r="123" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:7" x14ac:dyDescent="0.5">
       <c r="B123" t="str">
         <v>Gas Control Device/Control System Component</v>
       </c>
@@ -8246,7 +8246,7 @@
         <v>Cover-related Construction (Excavation/ Exposed Operations/ Re-grading)</v>
       </c>
     </row>
-    <row r="124" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:7" x14ac:dyDescent="0.5">
       <c r="B124" t="str">
         <v>Gas Control Device/Control System Component</v>
       </c>
@@ -8255,7 +8255,7 @@
       </c>
       <c r="G124"/>
     </row>
-    <row r="125" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:7" x14ac:dyDescent="0.5">
       <c r="B125" t="str">
         <v>Gas Control Device/Control System Component</v>
       </c>
@@ -8264,21 +8264,21 @@
       </c>
       <c r="G125"/>
     </row>
-    <row r="126" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:7" x14ac:dyDescent="0.5">
       <c r="G126"/>
     </row>
-    <row r="134" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:7" x14ac:dyDescent="0.5">
       <c r="G134"/>
     </row>
-    <row r="135" spans="2:7" s="56" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="135" spans="2:7" s="56" customFormat="1" ht="20.7" x14ac:dyDescent="0.7">
       <c r="B135" s="56" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="136" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:7" x14ac:dyDescent="0.5">
       <c r="G136"/>
     </row>
-    <row r="137" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:7" x14ac:dyDescent="0.5">
       <c r="B137" s="17" t="s">
         <v>311</v>
       </c>
@@ -8287,12 +8287,12 @@
       </c>
       <c r="G137"/>
     </row>
-    <row r="138" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:7" x14ac:dyDescent="0.5">
       <c r="B138" s="16"/>
       <c r="C138" s="16"/>
       <c r="G138"/>
     </row>
-    <row r="139" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:7" x14ac:dyDescent="0.5">
       <c r="B139" t="s">
         <v>35</v>
       </c>
@@ -8302,7 +8302,7 @@
       </c>
       <c r="G139"/>
     </row>
-    <row r="140" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:7" x14ac:dyDescent="0.5">
       <c r="B140" t="str" cm="1">
         <f t="array" ref="B140:B142">_carb_only_table_02[]</f>
         <v>Operator was aware of the leak prior to receiving the CARB plume notification</v>
@@ -8312,7 +8312,7 @@
       </c>
       <c r="G140"/>
     </row>
-    <row r="141" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:7" x14ac:dyDescent="0.5">
       <c r="B141" t="str">
         <v>Operator detected a leak during follow-up monitoring after receipt of the CARB plume notification</v>
       </c>
@@ -8321,7 +8321,7 @@
       </c>
       <c r="G141"/>
     </row>
-    <row r="142" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:7" x14ac:dyDescent="0.5">
       <c r="B142" t="str">
         <v>No leak was detected</v>
       </c>
@@ -8330,18 +8330,18 @@
       </c>
       <c r="G142"/>
     </row>
-    <row r="143" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:7" x14ac:dyDescent="0.5">
       <c r="G143"/>
     </row>
-    <row r="144" spans="2:7" s="56" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="144" spans="2:7" s="56" customFormat="1" ht="20.7" x14ac:dyDescent="0.7">
       <c r="B144" s="56" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="145" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:7" x14ac:dyDescent="0.5">
       <c r="G145"/>
     </row>
-    <row r="146" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:7" x14ac:dyDescent="0.5">
       <c r="B146" s="17" t="s">
         <v>311</v>
       </c>
@@ -8350,12 +8350,12 @@
       </c>
       <c r="G146"/>
     </row>
-    <row r="147" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:7" x14ac:dyDescent="0.5">
       <c r="B147" s="16"/>
       <c r="C147" s="16"/>
       <c r="G147"/>
     </row>
-    <row r="148" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:7" x14ac:dyDescent="0.5">
       <c r="B148" t="s">
         <v>35</v>
       </c>
@@ -8365,7 +8365,7 @@
       </c>
       <c r="G148"/>
     </row>
-    <row r="149" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:7" x14ac:dyDescent="0.5">
       <c r="B149" t="str">
         <f ca="1">IF(C11=B26, "Not applicable as no leak was detected", "")</f>
         <v/>
@@ -8376,7 +8376,7 @@
       </c>
       <c r="G149"/>
     </row>
-    <row r="150" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:7" x14ac:dyDescent="0.5">
       <c r="B150" t="str" cm="1">
         <f t="array" ref="B150:B153">_carb_only_table_03[]</f>
         <v>Operator was aware of the leak prior to receiving the notification, and/or repairs were in progress on the date of the plume observation</v>
@@ -8387,7 +8387,7 @@
       </c>
       <c r="G150"/>
     </row>
-    <row r="151" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:7" x14ac:dyDescent="0.5">
       <c r="B151" t="str">
         <v>An unintentional leak  (i.e., the operator was not aware of, and could be repaired if discovered)</v>
       </c>
@@ -8397,7 +8397,7 @@
       </c>
       <c r="G151"/>
     </row>
-    <row r="152" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:7" x14ac:dyDescent="0.5">
       <c r="B152" t="str">
         <v>An intentional or allowable vent (i.e., the operator was aware of, and/or would not repair)</v>
       </c>
@@ -8407,24 +8407,24 @@
       </c>
       <c r="G152"/>
     </row>
-    <row r="153" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:7" x14ac:dyDescent="0.5">
       <c r="B153" t="str">
         <v>Due to a temporary activity (i.e., would be resolved without corrective action when the activity is complete)</v>
       </c>
       <c r="G153"/>
     </row>
-    <row r="154" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:7" x14ac:dyDescent="0.5">
       <c r="G154"/>
     </row>
-    <row r="155" spans="2:7" s="56" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="155" spans="2:7" s="56" customFormat="1" ht="20.7" x14ac:dyDescent="0.7">
       <c r="B155" s="56" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="156" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:7" x14ac:dyDescent="0.5">
       <c r="G156"/>
     </row>
-    <row r="157" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:7" x14ac:dyDescent="0.5">
       <c r="B157" s="17" t="s">
         <v>311</v>
       </c>
@@ -8433,12 +8433,12 @@
       </c>
       <c r="G157"/>
     </row>
-    <row r="158" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:7" x14ac:dyDescent="0.5">
       <c r="B158" s="16"/>
       <c r="C158" s="16"/>
       <c r="G158"/>
     </row>
-    <row r="159" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:7" x14ac:dyDescent="0.5">
       <c r="B159" t="s">
         <v>35</v>
       </c>
@@ -8448,7 +8448,7 @@
       </c>
       <c r="G159"/>
     </row>
-    <row r="160" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:7" x14ac:dyDescent="0.5">
       <c r="B160" t="str">
         <f ca="1">IF(C11=B26, "Not applicable as no leak was detected", "")</f>
         <v/>
@@ -8459,7 +8459,7 @@
       </c>
       <c r="G160"/>
     </row>
-    <row r="161" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:7" x14ac:dyDescent="0.5">
       <c r="B161" t="str" cm="1">
         <f t="array" ref="B161:B167">_carb_only_table_04[]</f>
         <v>Gas Collection System Component (e.g., blower, well, valve, port)</v>
@@ -8470,7 +8470,7 @@
       </c>
       <c r="G161"/>
     </row>
-    <row r="162" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:7" x14ac:dyDescent="0.5">
       <c r="B162" t="str">
         <v>Gas Control Device/Control System Component</v>
       </c>
@@ -8480,7 +8480,7 @@
       </c>
       <c r="G162"/>
     </row>
-    <row r="163" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:7" x14ac:dyDescent="0.5">
       <c r="B163" t="str">
         <v>Landfill Surface: Daily Cover</v>
       </c>
@@ -8490,7 +8490,7 @@
       </c>
       <c r="G163"/>
     </row>
-    <row r="164" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:7" x14ac:dyDescent="0.5">
       <c r="B164" t="str">
         <v>Landfill Surface: Final Cover</v>
       </c>
@@ -8500,7 +8500,7 @@
       </c>
       <c r="G164"/>
     </row>
-    <row r="165" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:7" x14ac:dyDescent="0.5">
       <c r="B165" t="str">
         <v>Landfill Surface: Intermediate Cover</v>
       </c>
@@ -8510,7 +8510,7 @@
       </c>
       <c r="G165"/>
     </row>
-    <row r="166" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:7" x14ac:dyDescent="0.5">
       <c r="B166" t="str">
         <v>Leachate Management System</v>
       </c>
@@ -8520,24 +8520,24 @@
       </c>
       <c r="G166"/>
     </row>
-    <row r="167" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:7" x14ac:dyDescent="0.5">
       <c r="B167" t="str">
         <v>Working Face (area where active filling was being conducted at the time of detection)</v>
       </c>
       <c r="G167"/>
     </row>
-    <row r="168" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:7" x14ac:dyDescent="0.5">
       <c r="G168"/>
     </row>
-    <row r="169" spans="2:7" s="56" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="169" spans="2:7" s="56" customFormat="1" ht="20.7" x14ac:dyDescent="0.7">
       <c r="B169" s="56" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="170" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:7" x14ac:dyDescent="0.5">
       <c r="G170"/>
     </row>
-    <row r="171" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:7" x14ac:dyDescent="0.5">
       <c r="B171" s="17" t="s">
         <v>311</v>
       </c>
@@ -8546,12 +8546,12 @@
       </c>
       <c r="G171"/>
     </row>
-    <row r="172" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:7" x14ac:dyDescent="0.5">
       <c r="B172" s="16"/>
       <c r="C172" s="16"/>
       <c r="G172"/>
     </row>
-    <row r="173" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:7" x14ac:dyDescent="0.5">
       <c r="B173" t="s">
         <v>35</v>
       </c>
@@ -8561,74 +8561,74 @@
       </c>
       <c r="G173"/>
     </row>
-    <row r="174" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:7" x14ac:dyDescent="0.5">
       <c r="B174" t="str">
         <f ca="1">IF(C11=B26, "Not applicable as no leak was detected", "")</f>
         <v/>
       </c>
       <c r="G174"/>
     </row>
-    <row r="175" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:7" x14ac:dyDescent="0.5">
       <c r="B175" t="str" cm="1">
         <f t="array" aca="1" ref="B175" ca="1">_xlfn._xlws.FILTER($C$74:$C$125, $B$74:$B$125=C13, "")</f>
         <v/>
       </c>
       <c r="G175"/>
     </row>
-    <row r="176" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:7" x14ac:dyDescent="0.5">
       <c r="G176"/>
     </row>
-    <row r="177" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:7" x14ac:dyDescent="0.5">
       <c r="G177"/>
     </row>
-    <row r="178" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:7" x14ac:dyDescent="0.5">
       <c r="G178"/>
     </row>
-    <row r="179" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:7" x14ac:dyDescent="0.5">
       <c r="G179"/>
     </row>
-    <row r="180" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:7" x14ac:dyDescent="0.5">
       <c r="G180"/>
     </row>
-    <row r="181" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:7" x14ac:dyDescent="0.5">
       <c r="G181"/>
     </row>
-    <row r="182" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:7" x14ac:dyDescent="0.5">
       <c r="G182"/>
     </row>
-    <row r="183" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="183" spans="2:7" x14ac:dyDescent="0.5">
       <c r="G183"/>
     </row>
-    <row r="184" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="184" spans="2:7" x14ac:dyDescent="0.5">
       <c r="G184"/>
     </row>
-    <row r="185" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="185" spans="2:7" x14ac:dyDescent="0.5">
       <c r="G185"/>
     </row>
-    <row r="186" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="186" spans="2:7" x14ac:dyDescent="0.5">
       <c r="G186"/>
     </row>
-    <row r="187" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="187" spans="2:7" x14ac:dyDescent="0.5">
       <c r="G187"/>
     </row>
-    <row r="188" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="188" spans="2:7" x14ac:dyDescent="0.5">
       <c r="G188"/>
     </row>
-    <row r="189" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="189" spans="2:7" x14ac:dyDescent="0.5">
       <c r="G189"/>
     </row>
-    <row r="190" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="190" spans="2:7" x14ac:dyDescent="0.5">
       <c r="G190"/>
     </row>
-    <row r="191" spans="2:7" s="56" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="191" spans="2:7" s="56" customFormat="1" ht="20.7" x14ac:dyDescent="0.7">
       <c r="B191" s="56" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="192" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="192" spans="2:7" x14ac:dyDescent="0.5">
       <c r="G192"/>
     </row>
-    <row r="193" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="193" spans="2:7" x14ac:dyDescent="0.5">
       <c r="B193" s="17" t="s">
         <v>311</v>
       </c>
@@ -8637,12 +8637,12 @@
       </c>
       <c r="G193"/>
     </row>
-    <row r="194" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="194" spans="2:7" x14ac:dyDescent="0.5">
       <c r="B194" s="16"/>
       <c r="C194" s="16"/>
       <c r="G194"/>
     </row>
-    <row r="195" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="195" spans="2:7" x14ac:dyDescent="0.5">
       <c r="B195" t="s">
         <v>35</v>
       </c>
@@ -8652,7 +8652,7 @@
       </c>
       <c r="G195"/>
     </row>
-    <row r="196" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="196" spans="2:7" x14ac:dyDescent="0.5">
       <c r="B196" t="str">
         <f ca="1">IF(C11=B26, "Not applicable as no leak was detected", "")</f>
         <v/>
@@ -8663,65 +8663,65 @@
       </c>
       <c r="G196"/>
     </row>
-    <row r="197" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="197" spans="2:7" x14ac:dyDescent="0.5">
       <c r="B197" t="s">
         <v>317</v>
       </c>
       <c r="G197"/>
     </row>
-    <row r="198" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="198" spans="2:7" x14ac:dyDescent="0.5">
       <c r="B198" t="str" cm="1">
         <f t="array" aca="1" ref="B198" ca="1">_xlfn._xlws.FILTER($C$74:$C$125, $B$74:$B$125=C13, "")</f>
         <v/>
       </c>
       <c r="G198"/>
     </row>
-    <row r="199" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="199" spans="2:7" x14ac:dyDescent="0.5">
       <c r="G199"/>
     </row>
-    <row r="200" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="200" spans="2:7" x14ac:dyDescent="0.5">
       <c r="G200"/>
     </row>
-    <row r="201" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="201" spans="2:7" x14ac:dyDescent="0.5">
       <c r="G201"/>
     </row>
-    <row r="202" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="202" spans="2:7" x14ac:dyDescent="0.5">
       <c r="G202"/>
     </row>
-    <row r="203" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="203" spans="2:7" x14ac:dyDescent="0.5">
       <c r="G203"/>
     </row>
-    <row r="204" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="204" spans="2:7" x14ac:dyDescent="0.5">
       <c r="G204"/>
     </row>
-    <row r="205" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="205" spans="2:7" x14ac:dyDescent="0.5">
       <c r="G205"/>
     </row>
-    <row r="206" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="206" spans="2:7" x14ac:dyDescent="0.5">
       <c r="G206"/>
     </row>
-    <row r="207" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="207" spans="2:7" x14ac:dyDescent="0.5">
       <c r="G207"/>
     </row>
-    <row r="208" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="208" spans="2:7" x14ac:dyDescent="0.5">
       <c r="G208"/>
     </row>
-    <row r="209" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="209" spans="2:7" x14ac:dyDescent="0.5">
       <c r="G209"/>
     </row>
-    <row r="210" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="210" spans="2:7" x14ac:dyDescent="0.5">
       <c r="G210"/>
     </row>
-    <row r="213" spans="2:7" s="56" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="213" spans="2:7" s="56" customFormat="1" ht="20.7" x14ac:dyDescent="0.7">
       <c r="B213" s="56" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="214" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="214" spans="2:7" x14ac:dyDescent="0.5">
       <c r="B214" s="16"/>
       <c r="G214"/>
     </row>
-    <row r="215" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="215" spans="2:7" x14ac:dyDescent="0.5">
       <c r="B215" s="17" t="s">
         <v>311</v>
       </c>
@@ -8730,12 +8730,12 @@
       </c>
       <c r="G215"/>
     </row>
-    <row r="216" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="216" spans="2:7" x14ac:dyDescent="0.5">
       <c r="B216" s="16"/>
       <c r="C216" s="16"/>
       <c r="G216"/>
     </row>
-    <row r="217" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="217" spans="2:7" x14ac:dyDescent="0.5">
       <c r="B217" t="s">
         <v>35</v>
       </c>
@@ -8745,7 +8745,7 @@
       </c>
       <c r="G217"/>
     </row>
-    <row r="218" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="218" spans="2:7" x14ac:dyDescent="0.5">
       <c r="B218" t="str" cm="1">
         <f t="array" ref="B218:B219">_carb_only_table_01[]</f>
         <v>Yes</v>
@@ -8755,7 +8755,7 @@
       </c>
       <c r="G218"/>
     </row>
-    <row r="219" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="219" spans="2:7" x14ac:dyDescent="0.5">
       <c r="B219" t="str">
         <v>No</v>
       </c>
@@ -8785,19 +8785,19 @@
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="3.7109375" customWidth="1"/>
-    <col min="2" max="3" width="30.7109375" customWidth="1"/>
-    <col min="4" max="9" width="8.7109375" customWidth="1"/>
+    <col min="1" max="1" width="3.703125" customWidth="1"/>
+    <col min="2" max="3" width="30.703125" customWidth="1"/>
+    <col min="4" max="9" width="8.703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" s="14" customFormat="1" ht="20.7" x14ac:dyDescent="0.7">
       <c r="B2" s="14" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
         <v>67</v>
       </c>
@@ -8805,7 +8805,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
         <v>67</v>
       </c>
@@ -8813,7 +8813,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
         <v>67</v>
       </c>
@@ -8821,7 +8821,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A7" t="s">
         <v>67</v>
       </c>
@@ -8829,7 +8829,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="14" spans="1:3" s="15" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" s="15" customFormat="1" ht="20.7" x14ac:dyDescent="0.7">
       <c r="B14" s="15" t="s">
         <v>324</v>
       </c>
@@ -8837,7 +8837,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.5">
       <c r="B15" t="s">
         <v>326</v>
       </c>
@@ -8859,18 +8859,18 @@
       <selection activeCell="G116" sqref="G116"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="3.7109375" customWidth="1"/>
-    <col min="2" max="3" width="30.7109375" customWidth="1"/>
+    <col min="1" max="1" width="3.703125" customWidth="1"/>
+    <col min="2" max="3" width="30.703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" s="14" customFormat="1" ht="20.7" x14ac:dyDescent="0.7">
       <c r="B2" s="14" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
         <v>67</v>
       </c>
@@ -8878,7 +8878,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
         <v>67</v>
       </c>
@@ -8886,7 +8886,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
         <v>67</v>
       </c>
@@ -8894,7 +8894,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A7" t="s">
         <v>67</v>
       </c>
@@ -8902,12 +8902,12 @@
         <v>329</v>
       </c>
     </row>
-    <row r="9" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:3" s="15" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.5"/>
+    <row r="10" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.5"/>
+    <row r="11" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.5"/>
+    <row r="12" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.5"/>
+    <row r="13" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.5"/>
+    <row r="14" spans="1:3" s="15" customFormat="1" ht="20.7" x14ac:dyDescent="0.7">
       <c r="B14" s="15" t="s">
         <v>330</v>
       </c>
@@ -8915,7 +8915,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.5">
       <c r="B15" t="s">
         <v>332</v>
       </c>
@@ -8923,7 +8923,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.5">
       <c r="B16" t="s">
         <v>334</v>
       </c>
@@ -8946,24 +8946,24 @@
       <selection activeCell="A11" sqref="A11:F48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="3.7109375" customWidth="1"/>
-    <col min="2" max="2" width="25.140625" customWidth="1"/>
-    <col min="3" max="3" width="16.42578125" customWidth="1"/>
-    <col min="4" max="4" width="32.42578125" customWidth="1"/>
-    <col min="5" max="5" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.703125" customWidth="1"/>
+    <col min="2" max="2" width="25.1171875" customWidth="1"/>
+    <col min="3" max="3" width="16.41015625" customWidth="1"/>
+    <col min="4" max="4" width="32.41015625" customWidth="1"/>
+    <col min="5" max="5" width="16.41015625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="99" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" s="21" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" s="21" customFormat="1" ht="20.7" x14ac:dyDescent="0.7">
       <c r="B2" s="21" t="s">
         <v>336</v>
       </c>
       <c r="C2" s="22"/>
       <c r="F2" s="25"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
         <v>67</v>
       </c>
@@ -8973,26 +8973,26 @@
       <c r="C4" s="1"/>
       <c r="F4" s="19"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.5">
       <c r="C5" s="1"/>
       <c r="F5" s="19"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.5">
       <c r="C6" s="1"/>
       <c r="F6" s="19"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.5">
       <c r="C7" s="1"/>
       <c r="F7" s="19"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.5">
       <c r="C8" s="1"/>
       <c r="F8" s="19"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.5">
       <c r="F9" s="19"/>
     </row>
-    <row r="10" spans="1:6" s="15" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" s="15" customFormat="1" ht="20.7" x14ac:dyDescent="0.7">
       <c r="B10" s="15" t="s">
         <v>324</v>
       </c>
@@ -9009,7 +9009,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.5">
       <c r="B11" t="s">
         <v>341</v>
       </c>
@@ -9026,7 +9026,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.5">
       <c r="B12" t="s">
         <v>341</v>
       </c>
@@ -9043,7 +9043,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.5">
       <c r="B13" t="s">
         <v>326</v>
       </c>
@@ -9060,7 +9060,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.5">
       <c r="B14" t="s">
         <v>326</v>
       </c>
@@ -9077,7 +9077,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.5">
       <c r="B15" t="s">
         <v>326</v>
       </c>
@@ -9094,7 +9094,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.5">
       <c r="B16" t="s">
         <v>326</v>
       </c>
@@ -9111,7 +9111,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.5">
       <c r="B17" t="s">
         <v>326</v>
       </c>
@@ -9128,7 +9128,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.5">
       <c r="B18" t="s">
         <v>326</v>
       </c>
@@ -9145,7 +9145,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.5">
       <c r="B19" t="s">
         <v>326</v>
       </c>
@@ -9162,7 +9162,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.5">
       <c r="B20" t="s">
         <v>326</v>
       </c>
@@ -9179,7 +9179,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.5">
       <c r="B21" t="s">
         <v>326</v>
       </c>
@@ -9196,7 +9196,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.5">
       <c r="B22" t="s">
         <v>326</v>
       </c>
@@ -9213,7 +9213,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.5">
       <c r="B23" t="s">
         <v>326</v>
       </c>
@@ -9230,7 +9230,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.5">
       <c r="B24" t="s">
         <v>326</v>
       </c>
@@ -9247,7 +9247,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.5">
       <c r="B25" t="s">
         <v>326</v>
       </c>
@@ -9264,7 +9264,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.5">
       <c r="B26" t="s">
         <v>326</v>
       </c>
@@ -9281,7 +9281,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.5">
       <c r="B27" t="s">
         <v>326</v>
       </c>
@@ -9298,7 +9298,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.5">
       <c r="B28" t="s">
         <v>326</v>
       </c>
@@ -9315,7 +9315,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.5">
       <c r="B29" t="s">
         <v>326</v>
       </c>
@@ -9332,7 +9332,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.5">
       <c r="B30" t="s">
         <v>326</v>
       </c>
@@ -9349,7 +9349,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:6" x14ac:dyDescent="0.5">
       <c r="B31" t="s">
         <v>326</v>
       </c>
@@ -9366,7 +9366,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:6" x14ac:dyDescent="0.5">
       <c r="B32" t="s">
         <v>326</v>
       </c>
@@ -9383,7 +9383,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:6" x14ac:dyDescent="0.5">
       <c r="B33" t="s">
         <v>326</v>
       </c>
@@ -9400,7 +9400,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:6" x14ac:dyDescent="0.5">
       <c r="B34" t="s">
         <v>326</v>
       </c>
@@ -9417,7 +9417,7 @@
         <v>45152</v>
       </c>
     </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:6" x14ac:dyDescent="0.5">
       <c r="B35" t="s">
         <v>326</v>
       </c>
@@ -9434,7 +9434,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:6" x14ac:dyDescent="0.5">
       <c r="B36" t="s">
         <v>326</v>
       </c>
@@ -9451,7 +9451,7 @@
         <v>45277</v>
       </c>
     </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:6" x14ac:dyDescent="0.5">
       <c r="B37" t="s">
         <v>326</v>
       </c>
@@ -9468,7 +9468,7 @@
         <v>45276</v>
       </c>
     </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:6" x14ac:dyDescent="0.5">
       <c r="B38" t="s">
         <v>326</v>
       </c>
@@ -9485,7 +9485,7 @@
         <v>35.321100000000001</v>
       </c>
     </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:6" x14ac:dyDescent="0.5">
       <c r="B39" t="s">
         <v>326</v>
       </c>
@@ -9502,7 +9502,7 @@
         <v>35.321100000000001</v>
       </c>
     </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:6" x14ac:dyDescent="0.5">
       <c r="B40" t="s">
         <v>326</v>
       </c>
@@ -9519,7 +9519,7 @@
         <v>-119.5808</v>
       </c>
     </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:6" x14ac:dyDescent="0.5">
       <c r="B41" t="s">
         <v>326</v>
       </c>
@@ -9536,7 +9536,7 @@
         <v>-119.5808</v>
       </c>
     </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:6" x14ac:dyDescent="0.5">
       <c r="B42" t="s">
         <v>326</v>
       </c>
@@ -9553,7 +9553,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:6" x14ac:dyDescent="0.5">
       <c r="B43" t="s">
         <v>326</v>
       </c>
@@ -9570,7 +9570,7 @@
         <v>45275</v>
       </c>
     </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:6" x14ac:dyDescent="0.5">
       <c r="B44" t="s">
         <v>326</v>
       </c>
@@ -9587,7 +9587,7 @@
         <v>45468</v>
       </c>
     </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:6" x14ac:dyDescent="0.5">
       <c r="B45" t="s">
         <v>326</v>
       </c>
@@ -9604,7 +9604,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:6" x14ac:dyDescent="0.5">
       <c r="B46" t="s">
         <v>326</v>
       </c>
@@ -9621,7 +9621,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:6" x14ac:dyDescent="0.5">
       <c r="B47" t="s">
         <v>326</v>
       </c>
@@ -9638,7 +9638,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="48" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:6" x14ac:dyDescent="0.5">
       <c r="B48" t="s">
         <v>326</v>
       </c>
@@ -9670,24 +9670,24 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="B2:M27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="2" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.85546875" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="12.703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.87890625" customWidth="1"/>
+    <col min="5" max="5" width="13.703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="37" customWidth="1"/>
-    <col min="8" max="8" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.7109375" customWidth="1"/>
-    <col min="13" max="13" width="19.28515625" customWidth="1"/>
+    <col min="8" max="8" width="18.29296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.29296875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.703125" customWidth="1"/>
+    <col min="13" max="13" width="19.29296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" ht="36" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:13" ht="36" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B2" s="64" t="s">
         <v>415</v>
       </c>
@@ -9703,7 +9703,7 @@
       <c r="L2" s="60"/>
       <c r="M2" s="60"/>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:13" ht="15" x14ac:dyDescent="0.5">
       <c r="B3" s="69" t="s">
         <v>416</v>
       </c>
@@ -9719,7 +9719,7 @@
       <c r="L3" s="69"/>
       <c r="M3" s="69"/>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:13" ht="15" x14ac:dyDescent="0.5">
       <c r="B4" s="69" t="s">
         <v>417</v>
       </c>
@@ -9735,7 +9735,7 @@
       <c r="L4" s="69"/>
       <c r="M4" s="69"/>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:13" ht="15" x14ac:dyDescent="0.5">
       <c r="B5" s="69" t="s">
         <v>418</v>
       </c>
@@ -9751,7 +9751,7 @@
       <c r="L5" s="69"/>
       <c r="M5" s="69"/>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:13" ht="15" x14ac:dyDescent="0.5">
       <c r="B6" s="69" t="s">
         <v>419</v>
       </c>
@@ -9767,7 +9767,7 @@
       <c r="L6" s="69"/>
       <c r="M6" s="69"/>
     </row>
-    <row r="7" spans="2:13" ht="90" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:13" ht="71.7" x14ac:dyDescent="0.5">
       <c r="B7" s="58" t="s">
         <v>420</v>
       </c>
@@ -9805,7 +9805,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:13" x14ac:dyDescent="0.5">
       <c r="B8" s="63"/>
       <c r="C8" s="63"/>
       <c r="D8" s="63"/>
@@ -9819,7 +9819,7 @@
       <c r="L8" s="63"/>
       <c r="M8" s="63"/>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:13" x14ac:dyDescent="0.5">
       <c r="B9" s="63"/>
       <c r="C9" s="63"/>
       <c r="D9" s="63"/>
@@ -9833,7 +9833,7 @@
       <c r="L9" s="63"/>
       <c r="M9" s="63"/>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:13" x14ac:dyDescent="0.5">
       <c r="B10" s="63"/>
       <c r="C10" s="63"/>
       <c r="D10" s="63"/>
@@ -9847,7 +9847,7 @@
       <c r="L10" s="63"/>
       <c r="M10" s="63"/>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.5">
       <c r="B11" s="63"/>
       <c r="C11" s="63"/>
       <c r="D11" s="63"/>
@@ -9861,7 +9861,7 @@
       <c r="L11" s="63"/>
       <c r="M11" s="63"/>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.5">
       <c r="B12" s="63"/>
       <c r="C12" s="63"/>
       <c r="D12" s="63"/>
@@ -9875,7 +9875,7 @@
       <c r="L12" s="63"/>
       <c r="M12" s="63"/>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.5">
       <c r="B13" s="63"/>
       <c r="C13" s="63"/>
       <c r="D13" s="63"/>
@@ -9889,7 +9889,7 @@
       <c r="L13" s="63"/>
       <c r="M13" s="63"/>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.5">
       <c r="B14" s="63"/>
       <c r="C14" s="63"/>
       <c r="D14" s="63"/>
@@ -9903,7 +9903,7 @@
       <c r="L14" s="63"/>
       <c r="M14" s="63"/>
     </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:13" x14ac:dyDescent="0.5">
       <c r="B15" s="63"/>
       <c r="C15" s="63"/>
       <c r="D15" s="63"/>
@@ -9917,7 +9917,7 @@
       <c r="L15" s="63"/>
       <c r="M15" s="63"/>
     </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:13" x14ac:dyDescent="0.5">
       <c r="B16" s="63"/>
       <c r="C16" s="63"/>
       <c r="D16" s="63"/>
@@ -9931,7 +9931,7 @@
       <c r="L16" s="63"/>
       <c r="M16" s="63"/>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.5">
       <c r="B17" s="63"/>
       <c r="C17" s="63"/>
       <c r="D17" s="63"/>
@@ -9945,7 +9945,7 @@
       <c r="L17" s="63"/>
       <c r="M17" s="63"/>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.5">
       <c r="B18" s="63"/>
       <c r="C18" s="63"/>
       <c r="D18" s="63"/>
@@ -9959,7 +9959,7 @@
       <c r="L18" s="63"/>
       <c r="M18" s="63"/>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.5">
       <c r="B19" s="63"/>
       <c r="C19" s="63"/>
       <c r="D19" s="63"/>
@@ -9973,7 +9973,7 @@
       <c r="L19" s="63"/>
       <c r="M19" s="63"/>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.5">
       <c r="B20" s="63"/>
       <c r="C20" s="63"/>
       <c r="D20" s="63"/>
@@ -9987,7 +9987,7 @@
       <c r="L20" s="63"/>
       <c r="M20" s="63"/>
     </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:13" x14ac:dyDescent="0.5">
       <c r="B21" s="63"/>
       <c r="C21" s="63"/>
       <c r="D21" s="63"/>
@@ -10001,7 +10001,7 @@
       <c r="L21" s="63"/>
       <c r="M21" s="63"/>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:13" x14ac:dyDescent="0.5">
       <c r="B22" s="63"/>
       <c r="C22" s="63"/>
       <c r="D22" s="63"/>
@@ -10015,7 +10015,7 @@
       <c r="L22" s="63"/>
       <c r="M22" s="63"/>
     </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.5">
       <c r="B23" s="63"/>
       <c r="C23" s="63"/>
       <c r="D23" s="63"/>
@@ -10029,7 +10029,7 @@
       <c r="L23" s="63"/>
       <c r="M23" s="63"/>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.5">
       <c r="B24" s="63"/>
       <c r="C24" s="63"/>
       <c r="D24" s="63"/>
@@ -10043,7 +10043,7 @@
       <c r="L24" s="63"/>
       <c r="M24" s="63"/>
     </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:13" x14ac:dyDescent="0.5">
       <c r="B25" s="63"/>
       <c r="C25" s="63"/>
       <c r="D25" s="63"/>
@@ -10057,7 +10057,7 @@
       <c r="L25" s="63"/>
       <c r="M25" s="63"/>
     </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:13" x14ac:dyDescent="0.5">
       <c r="B26" s="63"/>
       <c r="C26" s="63"/>
       <c r="D26" s="63"/>
@@ -10071,7 +10071,7 @@
       <c r="L26" s="63"/>
       <c r="M26" s="63"/>
     </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:13" x14ac:dyDescent="0.5">
       <c r="B27" s="63"/>
       <c r="C27" s="63"/>
       <c r="D27" s="63"/>

--- a/feedback_forms/current_versions/landfill_operator_feedback_v071.xlsx
+++ b/feedback_forms/current_versions/landfill_operator_feedback_v071.xlsx
@@ -8,18 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\tony_local\pycharm\feedback_portal\feedback_forms\current_versions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6841AA8-6DB2-4C9E-BE56-6396230C7EAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{329CB5EE-B907-40B9-BE12-135D9807EBA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2933" yWindow="2933" windowWidth="19200" windowHeight="11387" tabRatio="705" activeTab="1" xr2:uid="{908CDDAE-4CC3-4DCD-AAA9-A26C259C2234}"/>
+    <workbookView xWindow="4333" yWindow="1073" windowWidth="19200" windowHeight="11387" tabRatio="705" xr2:uid="{908CDDAE-4CC3-4DCD-AAA9-A26C259C2234}"/>
   </bookViews>
   <sheets>
     <sheet name="Feedback Form" sheetId="6" r:id="rId1"/>
-    <sheet name="_issue_tracking" sheetId="7" r:id="rId2"/>
-    <sheet name="_carb_only" sheetId="2" r:id="rId3"/>
-    <sheet name="_json_schema" sheetId="3" r:id="rId4"/>
-    <sheet name="_json_metadata" sheetId="4" r:id="rId5"/>
-    <sheet name="_named_ranges" sheetId="8" r:id="rId6"/>
-    <sheet name="SEM-data" sheetId="9" r:id="rId7"/>
+    <sheet name="_versioning" sheetId="10" r:id="rId2"/>
+    <sheet name="_issue_tracking" sheetId="7" r:id="rId3"/>
+    <sheet name="_carb_only" sheetId="2" r:id="rId4"/>
+    <sheet name="_json_schema" sheetId="3" r:id="rId5"/>
+    <sheet name="_json_metadata" sheetId="4" r:id="rId6"/>
+    <sheet name="_named_ranges" sheetId="8" r:id="rId7"/>
+    <sheet name="SEM-data" sheetId="9" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_carb_only_table_05">_carb_only!$B$47:$B$58</definedName>
@@ -104,7 +105,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="434">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="695" uniqueCount="445">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -2071,6 +2072,41 @@
   </si>
   <si>
     <t>V071 _json_metadata schema updated to landfill_v01_01</t>
+  </si>
+  <si>
+    <t>Spreadsheet Versions</t>
+  </si>
+  <si>
+    <t>Notes about the the differences between spreadsheet versions</t>
+  </si>
+  <si>
+    <t>The spreadsheet version is defined by the _vxxx where xxx represents the version</t>
+  </si>
+  <si>
+    <t>Some files have the same version number, but have different content. The _RD, and _ISD are used to differentiate these files.</t>
+  </si>
+  <si>
+    <t>Table 1. Version Overview</t>
+  </si>
+  <si>
+    <t>Version</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>v070</t>
+  </si>
+  <si>
+    <t>The sector is 'Landfill' and the schema is 'landfill_v01_00'
+This was the initial approved landfill feedback form that was sent out to operators, it included the _additional_leaks tab that ISD created, but it was hidden from operators.</t>
+  </si>
+  <si>
+    <t>v071</t>
+  </si>
+  <si>
+    <t>The sector is 'Landfill' and the schema is 'landfill_v01_01'
+This includes the tab SEM-data that ISD created as a visible tab.  The instructions are slightly different than v070, so this spreadsheet has its own schema</t>
   </si>
 </sst>
 </file>
@@ -2450,7 +2486,7 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2552,10 +2588,6 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2661,8 +2693,17 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2670,7 +2711,7 @@
     <cellStyle name="Normal 2" xfId="2" xr:uid="{A763DB28-C2D7-4D86-94F7-D05CFB9105EC}"/>
     <cellStyle name="Normal 3" xfId="1" xr:uid="{34B4562B-54D1-406A-9AEB-82C17D409F56}"/>
   </cellStyles>
-  <dxfs count="23">
+  <dxfs count="26">
     <dxf>
       <fill>
         <patternFill>
@@ -2790,6 +2831,15 @@
     </dxf>
     <dxf>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -3362,15 +3412,15 @@
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1228132</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>1543</xdr:rowOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>437709</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
+        <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2DEDF226-62FD-4C66-96E2-3358EB7C0F05}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{789C580C-681F-4A8E-9760-3A1F6FB41351}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3392,8 +3442,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="390409" y="409706"/>
-          <a:ext cx="1143000" cy="864792"/>
+          <a:off x="385705" y="408295"/>
+          <a:ext cx="1138760" cy="859147"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3420,15 +3470,15 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>133525</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>3226</xdr:rowOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>563217</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
+        <xdr:cNvPr id="14" name="Picture 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5FE2378-3CCD-4334-9461-EDE152DABAE6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C84A9BB-A433-42B0-9536-392C0BF5D2D4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3450,8 +3500,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9074845" y="287875"/>
-          <a:ext cx="1138717" cy="1107890"/>
+          <a:off x="9080959" y="286464"/>
+          <a:ext cx="1144833" cy="1106486"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3464,6 +3514,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{9294E373-8A43-47CC-9D93-4875A13F17A2}" name="_issue_tracking_Table_0189" displayName="_issue_tracking_Table_0189" ref="B11:D26" totalsRowShown="0">
+  <autoFilter ref="B11:D26" xr:uid="{AA0102E3-3FDB-4D2A-A0C1-BF2A24336849}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{AB2A5EF6-083E-4457-9A4A-1E3B22E86F2E}" name="Version" dataDxfId="25"/>
+    <tableColumn id="3" xr3:uid="{01B78EA2-CB2B-4EBF-A8B4-A3A6A3E93A57}" name="Date" dataDxfId="24"/>
+    <tableColumn id="2" xr3:uid="{CF2AF18A-9AD5-4171-898D-D12AA74AFC3E}" name="Notes" dataDxfId="23"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{88E4CF48-AAEC-4756-B8D6-56F7F8A93943}" name="_issue_tracking_Table_01" displayName="_issue_tracking_Table_01" ref="B9:C13" totalsRowShown="0">
   <autoFilter ref="B9:C13" xr:uid="{24D72A52-95E4-464B-93BB-49FD17A99B8E}"/>
   <tableColumns count="2">
@@ -3474,7 +3536,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{DE64B9BE-CE69-4FB3-8E34-6D366DC757D7}" name="_issue_tracking_Table_02" displayName="_issue_tracking_Table_02" ref="B18:G122" totalsRowShown="0" dataDxfId="20">
   <autoFilter ref="B18:G122" xr:uid="{6B7A3421-D3A9-46B3-AA8A-01814CFA791D}"/>
   <tableColumns count="6">
@@ -3491,7 +3553,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{9880E526-F747-4E0D-85BC-BFBB5FEED4B1}" name="_carb_only_table_04" displayName="_carb_only_table_04" ref="B37:B43" headerRowCount="0" totalsRowShown="0">
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{05F1A10D-23B8-4722-AC84-E910A5ED1419}" name="Please Select"/>
@@ -3500,7 +3562,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{8E7BDA69-C89B-4381-ABB2-9131BBCB8805}" name="_carb_only_table_01" displayName="_carb_only_table_01" ref="B19:B20" headerRowCount="0" totalsRowShown="0">
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{9F9773EF-4A8E-493A-94D1-E6DA97B24D04}" name="Please Select"/>
@@ -3509,7 +3571,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{16A34581-BC95-4D0F-9AF0-175A16ED9191}" name="_carb_only_table_03" displayName="_carb_only_table_03" ref="B30:B33" headerRowCount="0" totalsRowShown="0">
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{71A1706F-E936-42A7-8A10-D6A3E160D5B9}" name="Please Select"/>
@@ -3518,7 +3580,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{DC461447-88AA-4FA5-BE22-B26902F253C2}" name="_carb_only_table_02" displayName="_carb_only_table_02" ref="B24:B26" headerRowCount="0" totalsRowShown="0">
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{7ABEE79C-A00F-41A0-83EF-65CAB812F23E}" name="Please Select"/>
@@ -3827,7 +3889,7 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="B1:AG73"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
@@ -3882,7 +3944,7 @@
       <c r="C2" s="31"/>
       <c r="D2" s="31"/>
       <c r="E2" s="31"/>
-      <c r="F2" s="65"/>
+      <c r="F2" s="80"/>
     </row>
     <row r="3" spans="2:33" s="30" customFormat="1" ht="51" x14ac:dyDescent="0.5">
       <c r="B3" s="31" t="s">
@@ -3891,7 +3953,7 @@
       <c r="C3" s="31"/>
       <c r="D3" s="31"/>
       <c r="E3" s="31"/>
-      <c r="F3" s="66"/>
+      <c r="F3" s="81"/>
     </row>
     <row r="4" spans="2:33" s="30" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B4" s="32"/>
@@ -3936,38 +3998,38 @@
       </c>
     </row>
     <row r="6" spans="2:33" s="34" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B6" s="67"/>
-      <c r="C6" s="67"/>
-      <c r="D6" s="67"/>
-      <c r="E6" s="68"/>
-      <c r="F6" s="68"/>
-      <c r="G6" s="68"/>
-      <c r="H6" s="68"/>
-      <c r="I6" s="68"/>
-      <c r="J6" s="68"/>
-      <c r="K6" s="68"/>
-      <c r="L6" s="68"/>
-      <c r="M6" s="68"/>
-      <c r="N6" s="68"/>
-      <c r="O6" s="68"/>
-      <c r="P6" s="68"/>
-      <c r="Q6" s="68"/>
-      <c r="R6" s="68"/>
-      <c r="S6" s="68"/>
-      <c r="T6" s="68"/>
-      <c r="U6" s="68"/>
-      <c r="V6" s="68"/>
-      <c r="W6" s="68"/>
-      <c r="X6" s="68"/>
-      <c r="Y6" s="68"/>
-      <c r="Z6" s="68"/>
-      <c r="AA6" s="68"/>
-      <c r="AB6" s="68"/>
-      <c r="AC6" s="68"/>
-      <c r="AD6" s="68"/>
-      <c r="AE6" s="68"/>
-      <c r="AF6" s="68"/>
-      <c r="AG6" s="68"/>
+      <c r="B6" s="66"/>
+      <c r="C6" s="66"/>
+      <c r="D6" s="66"/>
+      <c r="E6" s="67"/>
+      <c r="F6" s="67"/>
+      <c r="G6" s="67"/>
+      <c r="H6" s="67"/>
+      <c r="I6" s="67"/>
+      <c r="J6" s="67"/>
+      <c r="K6" s="67"/>
+      <c r="L6" s="67"/>
+      <c r="M6" s="67"/>
+      <c r="N6" s="67"/>
+      <c r="O6" s="67"/>
+      <c r="P6" s="67"/>
+      <c r="Q6" s="67"/>
+      <c r="R6" s="67"/>
+      <c r="S6" s="67"/>
+      <c r="T6" s="67"/>
+      <c r="U6" s="67"/>
+      <c r="V6" s="67"/>
+      <c r="W6" s="67"/>
+      <c r="X6" s="67"/>
+      <c r="Y6" s="67"/>
+      <c r="Z6" s="67"/>
+      <c r="AA6" s="67"/>
+      <c r="AB6" s="67"/>
+      <c r="AC6" s="67"/>
+      <c r="AD6" s="67"/>
+      <c r="AE6" s="67"/>
+      <c r="AF6" s="67"/>
+      <c r="AG6" s="67"/>
     </row>
     <row r="7" spans="2:33" s="30" customFormat="1" x14ac:dyDescent="0.5">
       <c r="AG7" s="30" t="s">
@@ -3975,103 +4037,103 @@
       </c>
     </row>
     <row r="8" spans="2:33" s="36" customFormat="1" ht="15" x14ac:dyDescent="0.5">
-      <c r="B8" s="69" t="s">
+      <c r="B8" s="68" t="s">
         <v>3</v>
       </c>
       <c r="C8" s="35"/>
       <c r="D8" s="35"/>
       <c r="E8" s="35"/>
-      <c r="F8" s="65"/>
+      <c r="F8" s="64"/>
     </row>
     <row r="9" spans="2:33" s="36" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B9" s="70" t="s">
+      <c r="B9" s="69" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="45"/>
-      <c r="D9" s="45"/>
+      <c r="C9" s="44"/>
+      <c r="D9" s="44"/>
       <c r="E9" s="35"/>
-      <c r="F9" s="65"/>
+      <c r="F9" s="64"/>
     </row>
     <row r="10" spans="2:33" s="36" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B10" s="71" t="s">
+      <c r="B10" s="70" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="46"/>
-      <c r="D10" s="46"/>
+      <c r="C10" s="45"/>
+      <c r="D10" s="45"/>
       <c r="E10" s="35"/>
-      <c r="F10" s="65"/>
+      <c r="F10" s="64"/>
     </row>
     <row r="11" spans="2:33" s="36" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B11" s="72" t="s">
+      <c r="B11" s="71" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="47"/>
-      <c r="D11" s="47"/>
+      <c r="C11" s="46"/>
+      <c r="D11" s="46"/>
       <c r="E11" s="35"/>
-      <c r="F11" s="65"/>
+      <c r="F11" s="64"/>
     </row>
     <row r="12" spans="2:33" s="36" customFormat="1" ht="15" x14ac:dyDescent="0.5">
-      <c r="B12" s="69" t="s">
+      <c r="B12" s="68" t="s">
         <v>7</v>
       </c>
       <c r="C12" s="35"/>
       <c r="D12" s="35"/>
       <c r="E12" s="35"/>
-      <c r="F12" s="65"/>
+      <c r="F12" s="64"/>
     </row>
     <row r="13" spans="2:33" s="36" customFormat="1" ht="15" x14ac:dyDescent="0.5">
-      <c r="B13" s="69" t="s">
+      <c r="B13" s="68" t="s">
         <v>8</v>
       </c>
       <c r="C13" s="35"/>
       <c r="D13" s="35"/>
       <c r="E13" s="35"/>
-      <c r="F13" s="65"/>
+      <c r="F13" s="64"/>
     </row>
     <row r="14" spans="2:33" s="36" customFormat="1" ht="15" x14ac:dyDescent="0.5">
-      <c r="B14" s="69" t="s">
+      <c r="B14" s="68" t="s">
         <v>9</v>
       </c>
       <c r="C14" s="35"/>
       <c r="D14" s="35"/>
       <c r="E14" s="35"/>
-      <c r="F14" s="65"/>
+      <c r="F14" s="64"/>
     </row>
     <row r="15" spans="2:33" s="36" customFormat="1" ht="15" x14ac:dyDescent="0.5">
-      <c r="B15" s="69" t="s">
+      <c r="B15" s="68" t="s">
         <v>10</v>
       </c>
       <c r="C15" s="35"/>
       <c r="D15" s="35"/>
       <c r="E15" s="35"/>
-      <c r="F15" s="65"/>
+      <c r="F15" s="64"/>
     </row>
     <row r="16" spans="2:33" s="36" customFormat="1" ht="15" x14ac:dyDescent="0.5">
-      <c r="B16" s="69" t="s">
+      <c r="B16" s="68" t="s">
         <v>11</v>
       </c>
       <c r="C16" s="35"/>
       <c r="D16" s="35"/>
       <c r="E16" s="35"/>
-      <c r="F16" s="65"/>
+      <c r="F16" s="64"/>
     </row>
     <row r="17" spans="2:33" s="36" customFormat="1" ht="15" x14ac:dyDescent="0.5">
-      <c r="B17" s="69" t="s">
+      <c r="B17" s="68" t="s">
         <v>12</v>
       </c>
       <c r="C17" s="35"/>
       <c r="D17" s="35"/>
       <c r="E17" s="35"/>
-      <c r="F17" s="65"/>
+      <c r="F17" s="64"/>
     </row>
     <row r="18" spans="2:33" s="36" customFormat="1" ht="15" x14ac:dyDescent="0.5">
-      <c r="B18" s="73" t="s">
+      <c r="B18" s="72" t="s">
         <v>13</v>
       </c>
       <c r="C18" s="35"/>
       <c r="D18" s="35"/>
       <c r="E18" s="35"/>
-      <c r="F18" s="65"/>
+      <c r="F18" s="64"/>
     </row>
     <row r="20" spans="2:33" s="30" customFormat="1" x14ac:dyDescent="0.5">
       <c r="AG20" s="30" t="s">
@@ -4079,38 +4141,38 @@
       </c>
     </row>
     <row r="21" spans="2:33" s="34" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B21" s="67"/>
-      <c r="C21" s="67"/>
-      <c r="D21" s="67"/>
-      <c r="E21" s="68"/>
-      <c r="F21" s="68"/>
+      <c r="B21" s="66"/>
+      <c r="C21" s="66"/>
+      <c r="D21" s="66"/>
+      <c r="E21" s="67"/>
+      <c r="F21" s="67"/>
       <c r="G21" s="36"/>
-      <c r="H21" s="68"/>
-      <c r="I21" s="68"/>
-      <c r="J21" s="68"/>
-      <c r="K21" s="68"/>
-      <c r="L21" s="68"/>
-      <c r="M21" s="68"/>
-      <c r="N21" s="68"/>
-      <c r="O21" s="68"/>
-      <c r="P21" s="68"/>
-      <c r="Q21" s="68"/>
-      <c r="R21" s="68"/>
-      <c r="S21" s="68"/>
-      <c r="T21" s="68"/>
-      <c r="U21" s="68"/>
-      <c r="V21" s="68"/>
-      <c r="W21" s="68"/>
-      <c r="X21" s="68"/>
-      <c r="Y21" s="68"/>
-      <c r="Z21" s="68"/>
-      <c r="AA21" s="68"/>
-      <c r="AB21" s="68"/>
-      <c r="AC21" s="68"/>
-      <c r="AD21" s="68"/>
-      <c r="AE21" s="68"/>
-      <c r="AF21" s="68"/>
-      <c r="AG21" s="68"/>
+      <c r="H21" s="67"/>
+      <c r="I21" s="67"/>
+      <c r="J21" s="67"/>
+      <c r="K21" s="67"/>
+      <c r="L21" s="67"/>
+      <c r="M21" s="67"/>
+      <c r="N21" s="67"/>
+      <c r="O21" s="67"/>
+      <c r="P21" s="67"/>
+      <c r="Q21" s="67"/>
+      <c r="R21" s="67"/>
+      <c r="S21" s="67"/>
+      <c r="T21" s="67"/>
+      <c r="U21" s="67"/>
+      <c r="V21" s="67"/>
+      <c r="W21" s="67"/>
+      <c r="X21" s="67"/>
+      <c r="Y21" s="67"/>
+      <c r="Z21" s="67"/>
+      <c r="AA21" s="67"/>
+      <c r="AB21" s="67"/>
+      <c r="AC21" s="67"/>
+      <c r="AD21" s="67"/>
+      <c r="AE21" s="67"/>
+      <c r="AF21" s="67"/>
+      <c r="AG21" s="67"/>
     </row>
     <row r="22" spans="2:33" s="30" customFormat="1" x14ac:dyDescent="0.5">
       <c r="AG22" s="30" t="s">
@@ -4118,68 +4180,68 @@
       </c>
     </row>
     <row r="23" spans="2:33" s="20" customFormat="1" ht="15" x14ac:dyDescent="0.5">
-      <c r="B23" s="69" t="s">
+      <c r="B23" s="68" t="s">
         <v>14</v>
       </c>
       <c r="C23" s="35"/>
-      <c r="D23" s="74">
+      <c r="D23" s="73">
         <v>153</v>
       </c>
-      <c r="E23" s="69"/>
+      <c r="E23" s="68"/>
       <c r="G23" s="36"/>
     </row>
     <row r="24" spans="2:33" s="36" customFormat="1" ht="15" x14ac:dyDescent="0.5">
-      <c r="B24" s="69" t="s">
+      <c r="B24" s="68" t="s">
         <v>15</v>
       </c>
       <c r="C24" s="35"/>
-      <c r="D24" s="74">
+      <c r="D24" s="73">
         <v>447</v>
       </c>
       <c r="E24" s="35"/>
     </row>
     <row r="25" spans="2:33" s="36" customFormat="1" ht="15" x14ac:dyDescent="0.5">
-      <c r="B25" s="69" t="s">
+      <c r="B25" s="68" t="s">
         <v>16</v>
       </c>
       <c r="C25" s="35"/>
-      <c r="D25" s="75">
+      <c r="D25" s="74">
         <v>45468</v>
       </c>
       <c r="E25" s="35"/>
     </row>
     <row r="26" spans="2:33" s="20" customFormat="1" ht="15" x14ac:dyDescent="0.5">
-      <c r="B26" s="69" t="s">
+      <c r="B26" s="68" t="s">
         <v>17</v>
       </c>
       <c r="C26" s="35"/>
-      <c r="D26" s="74">
+      <c r="D26" s="73">
         <v>35.321100000000001</v>
       </c>
-      <c r="E26" s="69"/>
+      <c r="E26" s="68"/>
       <c r="G26" s="36"/>
     </row>
     <row r="27" spans="2:33" s="20" customFormat="1" ht="15" x14ac:dyDescent="0.5">
-      <c r="B27" s="69" t="s">
+      <c r="B27" s="68" t="s">
         <v>18</v>
       </c>
       <c r="C27" s="35"/>
-      <c r="D27" s="74">
+      <c r="D27" s="73">
         <v>-119.5808</v>
       </c>
-      <c r="E27" s="69"/>
+      <c r="E27" s="68"/>
       <c r="G27" s="36"/>
     </row>
     <row r="28" spans="2:33" s="20" customFormat="1" ht="15" x14ac:dyDescent="0.5">
-      <c r="B28" s="69" t="s">
+      <c r="B28" s="68" t="s">
         <v>19</v>
       </c>
       <c r="C28" s="35"/>
-      <c r="D28" s="76" t="s">
+      <c r="D28" s="75" t="s">
         <v>20</v>
       </c>
-      <c r="E28" s="69"/>
-      <c r="F28" s="65"/>
+      <c r="E28" s="68"/>
+      <c r="F28" s="64"/>
       <c r="G28" s="36"/>
     </row>
     <row r="29" spans="2:33" s="30" customFormat="1" x14ac:dyDescent="0.5">
@@ -4188,38 +4250,38 @@
       </c>
     </row>
     <row r="30" spans="2:33" s="34" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B30" s="67"/>
-      <c r="C30" s="67"/>
-      <c r="D30" s="67"/>
-      <c r="E30" s="68"/>
-      <c r="F30" s="68"/>
+      <c r="B30" s="66"/>
+      <c r="C30" s="66"/>
+      <c r="D30" s="66"/>
+      <c r="E30" s="67"/>
+      <c r="F30" s="67"/>
       <c r="G30" s="36"/>
-      <c r="H30" s="68"/>
-      <c r="I30" s="68"/>
-      <c r="J30" s="68"/>
-      <c r="K30" s="68"/>
-      <c r="L30" s="68"/>
-      <c r="M30" s="68"/>
-      <c r="N30" s="68"/>
-      <c r="O30" s="68"/>
-      <c r="P30" s="68"/>
-      <c r="Q30" s="68"/>
-      <c r="R30" s="68"/>
-      <c r="S30" s="68"/>
-      <c r="T30" s="68"/>
-      <c r="U30" s="68"/>
-      <c r="V30" s="68"/>
-      <c r="W30" s="68"/>
-      <c r="X30" s="68"/>
-      <c r="Y30" s="68"/>
-      <c r="Z30" s="68"/>
-      <c r="AA30" s="68"/>
-      <c r="AB30" s="68"/>
-      <c r="AC30" s="68"/>
-      <c r="AD30" s="68"/>
-      <c r="AE30" s="68"/>
-      <c r="AF30" s="68"/>
-      <c r="AG30" s="68"/>
+      <c r="H30" s="67"/>
+      <c r="I30" s="67"/>
+      <c r="J30" s="67"/>
+      <c r="K30" s="67"/>
+      <c r="L30" s="67"/>
+      <c r="M30" s="67"/>
+      <c r="N30" s="67"/>
+      <c r="O30" s="67"/>
+      <c r="P30" s="67"/>
+      <c r="Q30" s="67"/>
+      <c r="R30" s="67"/>
+      <c r="S30" s="67"/>
+      <c r="T30" s="67"/>
+      <c r="U30" s="67"/>
+      <c r="V30" s="67"/>
+      <c r="W30" s="67"/>
+      <c r="X30" s="67"/>
+      <c r="Y30" s="67"/>
+      <c r="Z30" s="67"/>
+      <c r="AA30" s="67"/>
+      <c r="AB30" s="67"/>
+      <c r="AC30" s="67"/>
+      <c r="AD30" s="67"/>
+      <c r="AE30" s="67"/>
+      <c r="AF30" s="67"/>
+      <c r="AG30" s="67"/>
     </row>
     <row r="31" spans="2:33" s="30" customFormat="1" x14ac:dyDescent="0.5">
       <c r="AG31" s="30" t="s">
@@ -4227,58 +4289,58 @@
       </c>
     </row>
     <row r="32" spans="2:33" s="20" customFormat="1" ht="15.35" x14ac:dyDescent="0.5">
-      <c r="B32" s="65" t="s">
+      <c r="B32" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="C32" s="65"/>
-      <c r="D32" s="77" t="s">
+      <c r="C32" s="64"/>
+      <c r="D32" s="76" t="s">
         <v>22</v>
       </c>
-      <c r="E32" s="66"/>
+      <c r="E32" s="65"/>
       <c r="G32" s="36"/>
     </row>
     <row r="33" spans="2:33" s="20" customFormat="1" ht="15.35" x14ac:dyDescent="0.5">
-      <c r="B33" s="65" t="s">
+      <c r="B33" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="C33" s="66"/>
-      <c r="D33" s="77" t="s">
+      <c r="C33" s="65"/>
+      <c r="D33" s="76" t="s">
         <v>24</v>
       </c>
-      <c r="E33" s="66"/>
+      <c r="E33" s="65"/>
       <c r="G33" s="36"/>
     </row>
     <row r="34" spans="2:33" s="20" customFormat="1" ht="15.35" x14ac:dyDescent="0.5">
-      <c r="B34" s="65" t="s">
+      <c r="B34" s="64" t="s">
         <v>25</v>
       </c>
-      <c r="C34" s="65"/>
-      <c r="D34" s="77" t="s">
+      <c r="C34" s="64"/>
+      <c r="D34" s="76" t="s">
         <v>26</v>
       </c>
-      <c r="E34" s="66"/>
+      <c r="E34" s="65"/>
       <c r="G34" s="36"/>
     </row>
     <row r="35" spans="2:33" s="20" customFormat="1" ht="15.35" x14ac:dyDescent="0.5">
-      <c r="B35" s="65" t="s">
+      <c r="B35" s="64" t="s">
         <v>27</v>
       </c>
-      <c r="C35" s="65"/>
-      <c r="D35" s="77" t="s">
+      <c r="C35" s="64"/>
+      <c r="D35" s="76" t="s">
         <v>28</v>
       </c>
-      <c r="E35" s="66"/>
+      <c r="E35" s="65"/>
       <c r="G35" s="36"/>
     </row>
     <row r="36" spans="2:33" s="20" customFormat="1" ht="15.35" x14ac:dyDescent="0.5">
-      <c r="B36" s="65" t="s">
+      <c r="B36" s="64" t="s">
         <v>29</v>
       </c>
-      <c r="C36" s="65"/>
-      <c r="D36" s="77" t="s">
+      <c r="C36" s="64"/>
+      <c r="D36" s="76" t="s">
         <v>30</v>
       </c>
-      <c r="E36" s="66"/>
+      <c r="E36" s="65"/>
       <c r="G36" s="36"/>
     </row>
     <row r="37" spans="2:33" s="30" customFormat="1" x14ac:dyDescent="0.5">
@@ -4287,38 +4349,38 @@
       </c>
     </row>
     <row r="38" spans="2:33" s="34" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B38" s="67"/>
-      <c r="C38" s="67"/>
-      <c r="D38" s="67"/>
-      <c r="E38" s="68"/>
-      <c r="F38" s="68"/>
+      <c r="B38" s="66"/>
+      <c r="C38" s="66"/>
+      <c r="D38" s="66"/>
+      <c r="E38" s="67"/>
+      <c r="F38" s="67"/>
       <c r="G38" s="36"/>
-      <c r="H38" s="68"/>
-      <c r="I38" s="68"/>
-      <c r="J38" s="68"/>
-      <c r="K38" s="68"/>
-      <c r="L38" s="68"/>
-      <c r="M38" s="68"/>
-      <c r="N38" s="68"/>
-      <c r="O38" s="68"/>
-      <c r="P38" s="68"/>
-      <c r="Q38" s="68"/>
-      <c r="R38" s="68"/>
-      <c r="S38" s="68"/>
-      <c r="T38" s="68"/>
-      <c r="U38" s="68"/>
-      <c r="V38" s="68"/>
-      <c r="W38" s="68"/>
-      <c r="X38" s="68"/>
-      <c r="Y38" s="68"/>
-      <c r="Z38" s="68"/>
-      <c r="AA38" s="68"/>
-      <c r="AB38" s="68"/>
-      <c r="AC38" s="68"/>
-      <c r="AD38" s="68"/>
-      <c r="AE38" s="68"/>
-      <c r="AF38" s="68"/>
-      <c r="AG38" s="68"/>
+      <c r="H38" s="67"/>
+      <c r="I38" s="67"/>
+      <c r="J38" s="67"/>
+      <c r="K38" s="67"/>
+      <c r="L38" s="67"/>
+      <c r="M38" s="67"/>
+      <c r="N38" s="67"/>
+      <c r="O38" s="67"/>
+      <c r="P38" s="67"/>
+      <c r="Q38" s="67"/>
+      <c r="R38" s="67"/>
+      <c r="S38" s="67"/>
+      <c r="T38" s="67"/>
+      <c r="U38" s="67"/>
+      <c r="V38" s="67"/>
+      <c r="W38" s="67"/>
+      <c r="X38" s="67"/>
+      <c r="Y38" s="67"/>
+      <c r="Z38" s="67"/>
+      <c r="AA38" s="67"/>
+      <c r="AB38" s="67"/>
+      <c r="AC38" s="67"/>
+      <c r="AD38" s="67"/>
+      <c r="AE38" s="67"/>
+      <c r="AF38" s="67"/>
+      <c r="AG38" s="67"/>
     </row>
     <row r="39" spans="2:33" s="30" customFormat="1" x14ac:dyDescent="0.5">
       <c r="AG39" s="30" t="s">
@@ -4326,11 +4388,11 @@
       </c>
     </row>
     <row r="40" spans="2:33" s="20" customFormat="1" ht="15.35" x14ac:dyDescent="0.5">
-      <c r="B40" s="65" t="s">
+      <c r="B40" s="64" t="s">
         <v>31</v>
       </c>
-      <c r="C40" s="65"/>
-      <c r="D40" s="78">
+      <c r="C40" s="64"/>
+      <c r="D40" s="77">
         <v>45152</v>
       </c>
       <c r="E40" s="37"/>
@@ -4340,17 +4402,17 @@
       <c r="B41" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="C41" s="66"/>
-      <c r="D41" s="77" t="s">
+      <c r="C41" s="65"/>
+      <c r="D41" s="76" t="s">
         <v>33</v>
       </c>
       <c r="G41" s="36"/>
     </row>
     <row r="42" spans="2:33" s="20" customFormat="1" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B42" s="65" t="s">
+      <c r="B42" s="64" t="s">
         <v>34</v>
       </c>
-      <c r="C42" s="66"/>
+      <c r="C42" s="65"/>
       <c r="D42" s="42" t="s">
         <v>35</v>
       </c>
@@ -4360,8 +4422,8 @@
       <c r="B43" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="C43" s="66"/>
-      <c r="D43" s="77" t="s">
+      <c r="C43" s="65"/>
+      <c r="D43" s="76" t="s">
         <v>37</v>
       </c>
       <c r="G43" s="36"/>
@@ -4372,38 +4434,38 @@
       </c>
     </row>
     <row r="45" spans="2:33" s="34" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B45" s="67"/>
-      <c r="C45" s="67"/>
-      <c r="D45" s="67"/>
-      <c r="E45" s="68"/>
-      <c r="F45" s="68"/>
+      <c r="B45" s="66"/>
+      <c r="C45" s="66"/>
+      <c r="D45" s="66"/>
+      <c r="E45" s="67"/>
+      <c r="F45" s="67"/>
       <c r="G45" s="36"/>
-      <c r="H45" s="68"/>
-      <c r="I45" s="68"/>
-      <c r="J45" s="68"/>
-      <c r="K45" s="68"/>
-      <c r="L45" s="68"/>
-      <c r="M45" s="68"/>
-      <c r="N45" s="68"/>
-      <c r="O45" s="68"/>
-      <c r="P45" s="68"/>
-      <c r="Q45" s="68"/>
-      <c r="R45" s="68"/>
-      <c r="S45" s="68"/>
-      <c r="T45" s="68"/>
-      <c r="U45" s="68"/>
-      <c r="V45" s="68"/>
-      <c r="W45" s="68"/>
-      <c r="X45" s="68"/>
-      <c r="Y45" s="68"/>
-      <c r="Z45" s="68"/>
-      <c r="AA45" s="68"/>
-      <c r="AB45" s="68"/>
-      <c r="AC45" s="68"/>
-      <c r="AD45" s="68"/>
-      <c r="AE45" s="68"/>
-      <c r="AF45" s="68"/>
-      <c r="AG45" s="68"/>
+      <c r="H45" s="67"/>
+      <c r="I45" s="67"/>
+      <c r="J45" s="67"/>
+      <c r="K45" s="67"/>
+      <c r="L45" s="67"/>
+      <c r="M45" s="67"/>
+      <c r="N45" s="67"/>
+      <c r="O45" s="67"/>
+      <c r="P45" s="67"/>
+      <c r="Q45" s="67"/>
+      <c r="R45" s="67"/>
+      <c r="S45" s="67"/>
+      <c r="T45" s="67"/>
+      <c r="U45" s="67"/>
+      <c r="V45" s="67"/>
+      <c r="W45" s="67"/>
+      <c r="X45" s="67"/>
+      <c r="Y45" s="67"/>
+      <c r="Z45" s="67"/>
+      <c r="AA45" s="67"/>
+      <c r="AB45" s="67"/>
+      <c r="AC45" s="67"/>
+      <c r="AD45" s="67"/>
+      <c r="AE45" s="67"/>
+      <c r="AF45" s="67"/>
+      <c r="AG45" s="67"/>
     </row>
     <row r="46" spans="2:33" s="30" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B46" s="79" t="s">
@@ -4419,7 +4481,7 @@
       <c r="B47" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="D47" s="77">
+      <c r="D47" s="76">
         <v>500</v>
       </c>
       <c r="G47" s="36"/>
@@ -4428,11 +4490,11 @@
       </c>
     </row>
     <row r="48" spans="2:33" s="20" customFormat="1" ht="30.35" x14ac:dyDescent="0.5">
-      <c r="B48" s="48" t="s">
+      <c r="B48" s="47" t="s">
         <v>40</v>
       </c>
       <c r="C48" s="30"/>
-      <c r="D48" s="77">
+      <c r="D48" s="76">
         <v>35.321100000000001</v>
       </c>
       <c r="E48" s="30"/>
@@ -4443,7 +4505,7 @@
         <v>41</v>
       </c>
       <c r="C49" s="30"/>
-      <c r="D49" s="77">
+      <c r="D49" s="76">
         <v>-119.5808</v>
       </c>
       <c r="E49" s="30"/>
@@ -4453,7 +4515,7 @@
       <c r="B50" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="C50" s="66"/>
+      <c r="C50" s="65"/>
       <c r="D50" s="42" t="s">
         <v>35</v>
       </c>
@@ -4463,7 +4525,7 @@
       <c r="B51" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="C51" s="66"/>
+      <c r="C51" s="65"/>
       <c r="D51" s="42" t="s">
         <v>35</v>
       </c>
@@ -4473,36 +4535,36 @@
       <c r="B52" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="C52" s="66"/>
-      <c r="D52" s="77" t="s">
+      <c r="C52" s="65"/>
+      <c r="D52" s="76" t="s">
         <v>45</v>
       </c>
       <c r="G52" s="36"/>
     </row>
     <row r="53" spans="2:33" s="20" customFormat="1" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B53" s="65" t="s">
+      <c r="B53" s="64" t="s">
         <v>46</v>
       </c>
-      <c r="C53" s="66"/>
-      <c r="D53" s="43" t="s">
+      <c r="C53" s="65"/>
+      <c r="D53" s="42" t="s">
         <v>35</v>
       </c>
       <c r="G53" s="36"/>
     </row>
     <row r="54" spans="2:33" s="20" customFormat="1" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B54" s="65" t="s">
+      <c r="B54" s="64" t="s">
         <v>47</v>
       </c>
-      <c r="D54" s="43" t="s">
+      <c r="D54" s="42" t="s">
         <v>35</v>
       </c>
       <c r="G54" s="36"/>
     </row>
     <row r="55" spans="2:33" s="20" customFormat="1" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B55" s="65" t="s">
+      <c r="B55" s="64" t="s">
         <v>48</v>
       </c>
-      <c r="D55" s="44" t="s">
+      <c r="D55" s="43" t="s">
         <v>35</v>
       </c>
       <c r="G55" s="36"/>
@@ -4511,49 +4573,49 @@
       <c r="B56" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="D56" s="77" t="s">
+      <c r="D56" s="76" t="s">
         <v>50</v>
       </c>
       <c r="G56" s="36"/>
     </row>
     <row r="57" spans="2:33" s="20" customFormat="1" ht="15" x14ac:dyDescent="0.5">
-      <c r="B57" s="66"/>
-      <c r="C57" s="66"/>
-      <c r="D57" s="66"/>
+      <c r="B57" s="65"/>
+      <c r="C57" s="65"/>
+      <c r="D57" s="65"/>
     </row>
     <row r="58" spans="2:33" s="34" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B58" s="67"/>
-      <c r="C58" s="67"/>
-      <c r="D58" s="67"/>
-      <c r="E58" s="68"/>
-      <c r="F58" s="68"/>
+      <c r="B58" s="66"/>
+      <c r="C58" s="66"/>
+      <c r="D58" s="66"/>
+      <c r="E58" s="67"/>
+      <c r="F58" s="67"/>
       <c r="G58" s="36"/>
-      <c r="H58" s="68"/>
-      <c r="I58" s="68"/>
-      <c r="J58" s="68"/>
-      <c r="K58" s="68"/>
-      <c r="L58" s="68"/>
-      <c r="M58" s="68"/>
-      <c r="N58" s="68"/>
-      <c r="O58" s="68"/>
-      <c r="P58" s="68"/>
-      <c r="Q58" s="68"/>
-      <c r="R58" s="68"/>
-      <c r="S58" s="68"/>
-      <c r="T58" s="68"/>
-      <c r="U58" s="68"/>
-      <c r="V58" s="68"/>
-      <c r="W58" s="68"/>
-      <c r="X58" s="68"/>
-      <c r="Y58" s="68"/>
-      <c r="Z58" s="68"/>
-      <c r="AA58" s="68"/>
-      <c r="AB58" s="68"/>
-      <c r="AC58" s="68"/>
-      <c r="AD58" s="68"/>
-      <c r="AE58" s="68"/>
-      <c r="AF58" s="68"/>
-      <c r="AG58" s="68"/>
+      <c r="H58" s="67"/>
+      <c r="I58" s="67"/>
+      <c r="J58" s="67"/>
+      <c r="K58" s="67"/>
+      <c r="L58" s="67"/>
+      <c r="M58" s="67"/>
+      <c r="N58" s="67"/>
+      <c r="O58" s="67"/>
+      <c r="P58" s="67"/>
+      <c r="Q58" s="67"/>
+      <c r="R58" s="67"/>
+      <c r="S58" s="67"/>
+      <c r="T58" s="67"/>
+      <c r="U58" s="67"/>
+      <c r="V58" s="67"/>
+      <c r="W58" s="67"/>
+      <c r="X58" s="67"/>
+      <c r="Y58" s="67"/>
+      <c r="Z58" s="67"/>
+      <c r="AA58" s="67"/>
+      <c r="AB58" s="67"/>
+      <c r="AC58" s="67"/>
+      <c r="AD58" s="67"/>
+      <c r="AE58" s="67"/>
+      <c r="AF58" s="67"/>
+      <c r="AG58" s="67"/>
     </row>
     <row r="59" spans="2:33" s="30" customFormat="1" x14ac:dyDescent="0.5">
       <c r="AG59" s="30" t="s">
@@ -4561,19 +4623,19 @@
       </c>
     </row>
     <row r="60" spans="2:33" s="20" customFormat="1" ht="15.35" x14ac:dyDescent="0.5">
-      <c r="B60" s="65" t="s">
+      <c r="B60" s="64" t="s">
         <v>51</v>
       </c>
-      <c r="D60" s="77" t="s">
+      <c r="D60" s="76" t="s">
         <v>52</v>
       </c>
       <c r="G60" s="36"/>
     </row>
     <row r="61" spans="2:33" s="20" customFormat="1" ht="15.35" x14ac:dyDescent="0.5">
-      <c r="B61" s="65" t="s">
+      <c r="B61" s="64" t="s">
         <v>53</v>
       </c>
-      <c r="D61" s="78">
+      <c r="D61" s="77">
         <v>45275</v>
       </c>
       <c r="G61" s="36"/>
@@ -4582,7 +4644,7 @@
       <c r="B62" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="D62" s="78">
+      <c r="D62" s="77">
         <v>85</v>
       </c>
       <c r="G62" s="36"/>
@@ -4591,13 +4653,13 @@
       <c r="B63" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="D63" s="77">
+      <c r="D63" s="76">
         <v>85</v>
       </c>
       <c r="G63" s="36"/>
     </row>
     <row r="64" spans="2:33" s="20" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B64" s="65" t="s">
+      <c r="B64" s="64" t="s">
         <v>56</v>
       </c>
       <c r="D64" s="42" t="s">
@@ -4606,16 +4668,16 @@
       <c r="G64" s="36"/>
     </row>
     <row r="65" spans="2:7" s="20" customFormat="1" ht="31" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B65" s="65" t="s">
+      <c r="B65" s="64" t="s">
         <v>57</v>
       </c>
-      <c r="D65" s="77" t="s">
+      <c r="D65" s="76" t="s">
         <v>58</v>
       </c>
       <c r="G65" s="36"/>
     </row>
     <row r="66" spans="2:7" s="20" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B66" s="65" t="s">
+      <c r="B66" s="64" t="s">
         <v>59</v>
       </c>
       <c r="D66" s="42" t="s">
@@ -4624,16 +4686,16 @@
       <c r="G66" s="36"/>
     </row>
     <row r="67" spans="2:7" s="20" customFormat="1" ht="15.7" thickTop="1" x14ac:dyDescent="0.5">
-      <c r="B67" s="65" t="s">
+      <c r="B67" s="64" t="s">
         <v>60</v>
       </c>
-      <c r="D67" s="77" t="s">
+      <c r="D67" s="76" t="s">
         <v>61</v>
       </c>
       <c r="G67" s="36"/>
     </row>
     <row r="68" spans="2:7" s="20" customFormat="1" ht="15" x14ac:dyDescent="0.5">
-      <c r="B68" s="66"/>
+      <c r="B68" s="65"/>
       <c r="D68" s="39"/>
     </row>
     <row r="69" spans="2:7" s="40" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.5">
@@ -4641,19 +4703,19 @@
     </row>
     <row r="70" spans="2:7" s="40" customFormat="1" x14ac:dyDescent="0.5"/>
     <row r="71" spans="2:7" s="20" customFormat="1" ht="30.35" x14ac:dyDescent="0.5">
-      <c r="B71" s="65" t="s">
+      <c r="B71" s="64" t="s">
         <v>62</v>
       </c>
-      <c r="D71" s="78">
+      <c r="D71" s="77">
         <v>45276</v>
       </c>
       <c r="G71" s="36"/>
     </row>
     <row r="72" spans="2:7" s="20" customFormat="1" ht="30.35" x14ac:dyDescent="0.5">
-      <c r="B72" s="65" t="s">
+      <c r="B72" s="64" t="s">
         <v>63</v>
       </c>
-      <c r="D72" s="78">
+      <c r="D72" s="77">
         <v>45277</v>
       </c>
       <c r="G72" s="36"/>
@@ -4663,7 +4725,7 @@
         <v>64</v>
       </c>
       <c r="C73" s="41"/>
-      <c r="D73" s="77" t="s">
+      <c r="D73" s="76" t="s">
         <v>65</v>
       </c>
       <c r="G73" s="36"/>
@@ -4830,12 +4892,174 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9CBAFC7-5A80-4394-8833-2F2D1182DD3C}">
+  <sheetPr codeName="Sheet8"/>
+  <dimension ref="A2:D26"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <cols>
+    <col min="1" max="1" width="3.703125" customWidth="1"/>
+    <col min="2" max="3" width="10.64453125" customWidth="1"/>
+    <col min="4" max="4" width="80.64453125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:4" s="15" customFormat="1" ht="20.7" x14ac:dyDescent="0.7">
+      <c r="B2" s="15" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B4" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B5" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B6" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="B9" s="16" t="s">
+        <v>438</v>
+      </c>
+      <c r="C9" s="1"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="B10" s="16"/>
+      <c r="C10" s="1"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="B11" t="s">
+        <v>439</v>
+      </c>
+      <c r="C11" t="s">
+        <v>440</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="57.35" x14ac:dyDescent="0.5">
+      <c r="B12" s="23" t="s">
+        <v>441</v>
+      </c>
+      <c r="C12" s="78">
+        <v>45841</v>
+      </c>
+      <c r="D12" s="23" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="57.35" x14ac:dyDescent="0.5">
+      <c r="B13" s="23" t="s">
+        <v>443</v>
+      </c>
+      <c r="C13" s="78">
+        <v>45841</v>
+      </c>
+      <c r="D13" s="23" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="B14" s="23"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="B15" s="23"/>
+      <c r="C15" s="78"/>
+      <c r="D15" s="23"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="B16" s="23"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.5">
+      <c r="B17" s="23"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.5">
+      <c r="B18" s="23"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.5">
+      <c r="B19" s="23"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="23"/>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.5">
+      <c r="B20" s="23"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.5">
+      <c r="B21" s="23"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="23"/>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.5">
+      <c r="B22" s="23"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="23"/>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.5">
+      <c r="B23" s="23"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="23"/>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.5">
+      <c r="B24" s="23"/>
+      <c r="C24" s="23"/>
+      <c r="D24" s="23"/>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.5">
+      <c r="B25" s="23"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="23"/>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.5">
+      <c r="B26" s="23"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="23"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6D22213-201A-47BB-823E-078EE6D590B0}">
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A2:R122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A112" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D117" sqref="D117"/>
+    <sheetView topLeftCell="A112" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F115" sqref="F115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -6429,7 +6653,7 @@
         <f t="shared" ref="F88:F89" si="5">$B$13</f>
         <v>Resolved</v>
       </c>
-      <c r="G88" s="49" t="s">
+      <c r="G88" s="48" t="s">
         <v>213</v>
       </c>
     </row>
@@ -6450,7 +6674,7 @@
         <f t="shared" si="5"/>
         <v>Resolved</v>
       </c>
-      <c r="G89" s="49" t="s">
+      <c r="G89" s="48" t="s">
         <v>216</v>
       </c>
     </row>
@@ -6492,13 +6716,13 @@
         <f t="shared" si="6"/>
         <v>Resolved</v>
       </c>
-      <c r="G91" s="49"/>
+      <c r="G91" s="48"/>
     </row>
     <row r="92" spans="2:7" s="20" customFormat="1" ht="186.35" x14ac:dyDescent="0.5">
       <c r="B92" s="20">
         <v>71</v>
       </c>
-      <c r="C92" s="50" t="s">
+      <c r="C92" s="49" t="s">
         <v>222</v>
       </c>
       <c r="D92" s="24">
@@ -6933,7 +7157,7 @@
         <v>128</v>
       </c>
       <c r="F113" s="23" t="str">
-        <f t="shared" ref="F113:F115" si="11">$B$11</f>
+        <f t="shared" ref="F113:F114" si="11">$B$11</f>
         <v>Pending</v>
       </c>
       <c r="G113" s="23"/>
@@ -6971,8 +7195,8 @@
         <v>144</v>
       </c>
       <c r="F115" s="23" t="str">
-        <f t="shared" si="11"/>
-        <v>Pending</v>
+        <f>$B$13</f>
+        <v>Resolved</v>
       </c>
       <c r="G115" s="23" t="s">
         <v>258</v>
@@ -6992,7 +7216,7 @@
         <v>133</v>
       </c>
       <c r="F116" s="23" t="str">
-        <f>B13</f>
+        <f>$B$13</f>
         <v>Resolved</v>
       </c>
       <c r="G116" s="23"/>
@@ -7072,7 +7296,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCC3FEB7-B2CF-40A1-B17B-C16D27097E6B}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A2:Q219"/>
@@ -7090,8 +7314,8 @@
     <col min="6" max="17" width="16.703125" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:17" s="55" customFormat="1" ht="20.7" x14ac:dyDescent="0.7">
-      <c r="B2" s="55" t="s">
+    <row r="2" spans="1:17" s="54" customFormat="1" ht="20.7" x14ac:dyDescent="0.7">
+      <c r="B2" s="54" t="s">
         <v>259</v>
       </c>
     </row>
@@ -7166,8 +7390,8 @@
       <c r="P7"/>
       <c r="Q7"/>
     </row>
-    <row r="8" spans="1:17" s="56" customFormat="1" ht="20.7" x14ac:dyDescent="0.7">
-      <c r="B8" s="56" t="s">
+    <row r="8" spans="1:17" s="55" customFormat="1" ht="20.7" x14ac:dyDescent="0.7">
+      <c r="B8" s="55" t="s">
         <v>263</v>
       </c>
     </row>
@@ -7194,17 +7418,17 @@
       <c r="E10" s="16" t="s">
         <v>266</v>
       </c>
-      <c r="F10" s="57"/>
-      <c r="H10" s="57"/>
-      <c r="I10" s="57"/>
-      <c r="J10" s="57"/>
-      <c r="K10" s="57"/>
-      <c r="L10" s="57"/>
-      <c r="M10" s="57"/>
-      <c r="N10" s="57"/>
-      <c r="O10" s="57"/>
-      <c r="P10" s="57"/>
-      <c r="Q10" s="57"/>
+      <c r="F10" s="56"/>
+      <c r="H10" s="56"/>
+      <c r="I10" s="56"/>
+      <c r="J10" s="56"/>
+      <c r="K10" s="56"/>
+      <c r="L10" s="56"/>
+      <c r="M10" s="56"/>
+      <c r="N10" s="56"/>
+      <c r="O10" s="56"/>
+      <c r="P10" s="56"/>
+      <c r="Q10" s="56"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.5">
       <c r="B11" t="s">
@@ -7248,8 +7472,8 @@
       </c>
       <c r="G13"/>
     </row>
-    <row r="15" spans="1:17" s="56" customFormat="1" ht="20.7" x14ac:dyDescent="0.7">
-      <c r="B15" s="56" t="s">
+    <row r="15" spans="1:17" s="55" customFormat="1" ht="20.7" x14ac:dyDescent="0.7">
+      <c r="B15" s="55" t="s">
         <v>270</v>
       </c>
     </row>
@@ -7468,7 +7692,7 @@
       </c>
     </row>
     <row r="48" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B48" s="51" t="str" cm="1">
+      <c r="B48" s="50" t="str" cm="1">
         <f t="array" ref="B48:B58">_xlfn._xlws.SORT(_xlfn.UNIQUE(_xlfn.TOCOL(C64:M70, 1)))</f>
         <v>Collection system downtime</v>
       </c>
@@ -7476,70 +7700,70 @@
       <c r="Q48"/>
     </row>
     <row r="49" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B49" s="53" t="str">
+      <c r="B49" s="52" t="str">
         <v>Construction - New Well Installation</v>
       </c>
       <c r="E49" s="7"/>
       <c r="Q49"/>
     </row>
     <row r="50" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B50" s="54" t="str">
+      <c r="B50" s="53" t="str">
         <v>Construction - Well Raising or Horizontal Extension</v>
       </c>
       <c r="E50" s="7"/>
       <c r="Q50"/>
     </row>
     <row r="51" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B51" s="52" t="str">
+      <c r="B51" s="51" t="str">
         <v>Cover integrity</v>
       </c>
       <c r="E51" s="7"/>
       <c r="Q51"/>
     </row>
     <row r="52" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B52" s="51" t="str">
+      <c r="B52" s="50" t="str">
         <v>Cover-related Construction (Excavation/ Exposed Operations/ Re-grading)</v>
       </c>
       <c r="E52" s="7"/>
       <c r="Q52"/>
     </row>
     <row r="53" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B53" s="52" t="str">
+      <c r="B53" s="51" t="str">
         <v>Cracked/Broken Seal</v>
       </c>
       <c r="E53" s="7"/>
       <c r="Q53"/>
     </row>
     <row r="54" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B54" s="51" t="str">
+      <c r="B54" s="50" t="str">
         <v>Damaged component</v>
       </c>
       <c r="E54" s="7"/>
       <c r="Q54"/>
     </row>
     <row r="55" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B55" s="51" t="str">
+      <c r="B55" s="50" t="str">
         <v>Insufficient vacuum</v>
       </c>
       <c r="E55" s="7"/>
       <c r="Q55"/>
     </row>
     <row r="56" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B56" s="53" t="str">
+      <c r="B56" s="52" t="str">
         <v>Offline Gas Collection Well(s)</v>
       </c>
       <c r="E56" s="7"/>
       <c r="Q56"/>
     </row>
     <row r="57" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B57" s="54" t="str">
+      <c r="B57" s="53" t="str">
         <v>Other</v>
       </c>
       <c r="E57" s="7"/>
       <c r="Q57"/>
     </row>
     <row r="58" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B58" s="52" t="str">
+      <c r="B58" s="51" t="str">
         <v>Uncontrolled Area (no gas collection infrastructure)</v>
       </c>
       <c r="E58" s="7"/>
@@ -8270,8 +8494,8 @@
     <row r="134" spans="2:7" x14ac:dyDescent="0.5">
       <c r="G134"/>
     </row>
-    <row r="135" spans="2:7" s="56" customFormat="1" ht="20.7" x14ac:dyDescent="0.7">
-      <c r="B135" s="56" t="s">
+    <row r="135" spans="2:7" s="55" customFormat="1" ht="20.7" x14ac:dyDescent="0.7">
+      <c r="B135" s="55" t="s">
         <v>310</v>
       </c>
     </row>
@@ -8333,8 +8557,8 @@
     <row r="143" spans="2:7" x14ac:dyDescent="0.5">
       <c r="G143"/>
     </row>
-    <row r="144" spans="2:7" s="56" customFormat="1" ht="20.7" x14ac:dyDescent="0.7">
-      <c r="B144" s="56" t="s">
+    <row r="144" spans="2:7" s="55" customFormat="1" ht="20.7" x14ac:dyDescent="0.7">
+      <c r="B144" s="55" t="s">
         <v>313</v>
       </c>
     </row>
@@ -8416,8 +8640,8 @@
     <row r="154" spans="2:7" x14ac:dyDescent="0.5">
       <c r="G154"/>
     </row>
-    <row r="155" spans="2:7" s="56" customFormat="1" ht="20.7" x14ac:dyDescent="0.7">
-      <c r="B155" s="56" t="s">
+    <row r="155" spans="2:7" s="55" customFormat="1" ht="20.7" x14ac:dyDescent="0.7">
+      <c r="B155" s="55" t="s">
         <v>314</v>
       </c>
     </row>
@@ -8529,8 +8753,8 @@
     <row r="168" spans="2:7" x14ac:dyDescent="0.5">
       <c r="G168"/>
     </row>
-    <row r="169" spans="2:7" s="56" customFormat="1" ht="20.7" x14ac:dyDescent="0.7">
-      <c r="B169" s="56" t="s">
+    <row r="169" spans="2:7" s="55" customFormat="1" ht="20.7" x14ac:dyDescent="0.7">
+      <c r="B169" s="55" t="s">
         <v>315</v>
       </c>
     </row>
@@ -8620,8 +8844,8 @@
     <row r="190" spans="2:7" x14ac:dyDescent="0.5">
       <c r="G190"/>
     </row>
-    <row r="191" spans="2:7" s="56" customFormat="1" ht="20.7" x14ac:dyDescent="0.7">
-      <c r="B191" s="56" t="s">
+    <row r="191" spans="2:7" s="55" customFormat="1" ht="20.7" x14ac:dyDescent="0.7">
+      <c r="B191" s="55" t="s">
         <v>316</v>
       </c>
     </row>
@@ -8712,8 +8936,8 @@
     <row r="210" spans="2:7" x14ac:dyDescent="0.5">
       <c r="G210"/>
     </row>
-    <row r="213" spans="2:7" s="56" customFormat="1" ht="20.7" x14ac:dyDescent="0.7">
-      <c r="B213" s="56" t="s">
+    <row r="213" spans="2:7" s="55" customFormat="1" ht="20.7" x14ac:dyDescent="0.7">
+      <c r="B213" s="55" t="s">
         <v>318</v>
       </c>
     </row>
@@ -8776,7 +9000,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F195264-197C-43A4-9E55-72E4838651B8}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A2:C15"/>
@@ -8850,7 +9074,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F597CF2C-3C7B-4311-9270-982E05FB433E}">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A2:C16"/>
@@ -8937,7 +9161,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78D56CBE-D6C9-4948-B09E-324460C47E3F}">
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A2:F48"/>
@@ -9665,7 +9889,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02266636-E8AB-47C8-87D5-C49D3726FCE3}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="B2:M27"/>
@@ -9688,402 +9912,402 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:13" ht="36" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B2" s="64" t="s">
+      <c r="B2" s="63" t="s">
         <v>415</v>
       </c>
-      <c r="C2" s="61"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="60"/>
-      <c r="I2" s="60"/>
-      <c r="J2" s="60"/>
-      <c r="K2" s="60"/>
-      <c r="L2" s="60"/>
-      <c r="M2" s="60"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="59"/>
+      <c r="L2" s="59"/>
+      <c r="M2" s="59"/>
     </row>
     <row r="3" spans="2:13" ht="15" x14ac:dyDescent="0.5">
-      <c r="B3" s="69" t="s">
+      <c r="B3" s="68" t="s">
         <v>416</v>
       </c>
-      <c r="C3" s="69"/>
-      <c r="D3" s="69"/>
-      <c r="E3" s="69"/>
-      <c r="F3" s="69"/>
-      <c r="G3" s="69"/>
-      <c r="H3" s="69"/>
-      <c r="I3" s="69"/>
-      <c r="J3" s="69"/>
-      <c r="K3" s="69"/>
-      <c r="L3" s="69"/>
-      <c r="M3" s="69"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="68"/>
+      <c r="I3" s="68"/>
+      <c r="J3" s="68"/>
+      <c r="K3" s="68"/>
+      <c r="L3" s="68"/>
+      <c r="M3" s="68"/>
     </row>
     <row r="4" spans="2:13" ht="15" x14ac:dyDescent="0.5">
-      <c r="B4" s="69" t="s">
+      <c r="B4" s="68" t="s">
         <v>417</v>
       </c>
-      <c r="C4" s="69"/>
-      <c r="D4" s="69"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="69"/>
-      <c r="G4" s="69"/>
-      <c r="H4" s="69"/>
-      <c r="I4" s="69"/>
-      <c r="J4" s="69"/>
-      <c r="K4" s="69"/>
-      <c r="L4" s="69"/>
-      <c r="M4" s="69"/>
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="68"/>
+      <c r="G4" s="68"/>
+      <c r="H4" s="68"/>
+      <c r="I4" s="68"/>
+      <c r="J4" s="68"/>
+      <c r="K4" s="68"/>
+      <c r="L4" s="68"/>
+      <c r="M4" s="68"/>
     </row>
     <row r="5" spans="2:13" ht="15" x14ac:dyDescent="0.5">
-      <c r="B5" s="69" t="s">
+      <c r="B5" s="68" t="s">
         <v>418</v>
       </c>
-      <c r="C5" s="69"/>
-      <c r="D5" s="69"/>
-      <c r="E5" s="69"/>
-      <c r="F5" s="69"/>
-      <c r="G5" s="69"/>
-      <c r="H5" s="69"/>
-      <c r="I5" s="69"/>
-      <c r="J5" s="69"/>
-      <c r="K5" s="69"/>
-      <c r="L5" s="69"/>
-      <c r="M5" s="69"/>
+      <c r="C5" s="68"/>
+      <c r="D5" s="68"/>
+      <c r="E5" s="68"/>
+      <c r="F5" s="68"/>
+      <c r="G5" s="68"/>
+      <c r="H5" s="68"/>
+      <c r="I5" s="68"/>
+      <c r="J5" s="68"/>
+      <c r="K5" s="68"/>
+      <c r="L5" s="68"/>
+      <c r="M5" s="68"/>
     </row>
     <row r="6" spans="2:13" ht="15" x14ac:dyDescent="0.5">
-      <c r="B6" s="69" t="s">
+      <c r="B6" s="68" t="s">
         <v>419</v>
       </c>
-      <c r="C6" s="69"/>
-      <c r="D6" s="69"/>
-      <c r="E6" s="69"/>
-      <c r="F6" s="69"/>
-      <c r="G6" s="69"/>
-      <c r="H6" s="69"/>
-      <c r="I6" s="69"/>
-      <c r="J6" s="69"/>
-      <c r="K6" s="69"/>
-      <c r="L6" s="69"/>
-      <c r="M6" s="69"/>
+      <c r="C6" s="68"/>
+      <c r="D6" s="68"/>
+      <c r="E6" s="68"/>
+      <c r="F6" s="68"/>
+      <c r="G6" s="68"/>
+      <c r="H6" s="68"/>
+      <c r="I6" s="68"/>
+      <c r="J6" s="68"/>
+      <c r="K6" s="68"/>
+      <c r="L6" s="68"/>
+      <c r="M6" s="68"/>
     </row>
     <row r="7" spans="2:13" ht="71.7" x14ac:dyDescent="0.5">
-      <c r="B7" s="58" t="s">
+      <c r="B7" s="57" t="s">
         <v>420</v>
       </c>
-      <c r="C7" s="58" t="s">
+      <c r="C7" s="57" t="s">
         <v>421</v>
       </c>
-      <c r="D7" s="59" t="s">
+      <c r="D7" s="58" t="s">
         <v>422</v>
       </c>
-      <c r="E7" s="58" t="s">
+      <c r="E7" s="57" t="s">
         <v>423</v>
       </c>
-      <c r="F7" s="58" t="s">
+      <c r="F7" s="57" t="s">
         <v>424</v>
       </c>
-      <c r="G7" s="58" t="s">
+      <c r="G7" s="57" t="s">
         <v>425</v>
       </c>
-      <c r="H7" s="58" t="s">
+      <c r="H7" s="57" t="s">
         <v>426</v>
       </c>
-      <c r="I7" s="58" t="s">
+      <c r="I7" s="57" t="s">
         <v>427</v>
       </c>
-      <c r="J7" s="58" t="s">
+      <c r="J7" s="57" t="s">
         <v>428</v>
       </c>
-      <c r="K7" s="58" t="s">
+      <c r="K7" s="57" t="s">
         <v>429</v>
       </c>
-      <c r="L7" s="58" t="s">
+      <c r="L7" s="57" t="s">
         <v>430</v>
       </c>
-      <c r="M7" s="58" t="s">
+      <c r="M7" s="57" t="s">
         <v>431</v>
       </c>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.5">
-      <c r="B8" s="63"/>
-      <c r="C8" s="63"/>
-      <c r="D8" s="63"/>
-      <c r="E8" s="63"/>
-      <c r="F8" s="63"/>
-      <c r="G8" s="63"/>
-      <c r="H8" s="63"/>
-      <c r="I8" s="63"/>
-      <c r="J8" s="63"/>
-      <c r="K8" s="63"/>
-      <c r="L8" s="63"/>
-      <c r="M8" s="63"/>
+      <c r="B8" s="62"/>
+      <c r="C8" s="62"/>
+      <c r="D8" s="62"/>
+      <c r="E8" s="62"/>
+      <c r="F8" s="62"/>
+      <c r="G8" s="62"/>
+      <c r="H8" s="62"/>
+      <c r="I8" s="62"/>
+      <c r="J8" s="62"/>
+      <c r="K8" s="62"/>
+      <c r="L8" s="62"/>
+      <c r="M8" s="62"/>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.5">
-      <c r="B9" s="63"/>
-      <c r="C9" s="63"/>
-      <c r="D9" s="63"/>
-      <c r="E9" s="63"/>
-      <c r="F9" s="63"/>
-      <c r="G9" s="63"/>
-      <c r="H9" s="63"/>
-      <c r="I9" s="63"/>
-      <c r="J9" s="63"/>
-      <c r="K9" s="63"/>
-      <c r="L9" s="63"/>
-      <c r="M9" s="63"/>
+      <c r="B9" s="62"/>
+      <c r="C9" s="62"/>
+      <c r="D9" s="62"/>
+      <c r="E9" s="62"/>
+      <c r="F9" s="62"/>
+      <c r="G9" s="62"/>
+      <c r="H9" s="62"/>
+      <c r="I9" s="62"/>
+      <c r="J9" s="62"/>
+      <c r="K9" s="62"/>
+      <c r="L9" s="62"/>
+      <c r="M9" s="62"/>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.5">
-      <c r="B10" s="63"/>
-      <c r="C10" s="63"/>
-      <c r="D10" s="63"/>
-      <c r="E10" s="63"/>
-      <c r="F10" s="63"/>
-      <c r="G10" s="63"/>
-      <c r="H10" s="63"/>
-      <c r="I10" s="63"/>
-      <c r="J10" s="63"/>
-      <c r="K10" s="63"/>
-      <c r="L10" s="63"/>
-      <c r="M10" s="63"/>
+      <c r="B10" s="62"/>
+      <c r="C10" s="62"/>
+      <c r="D10" s="62"/>
+      <c r="E10" s="62"/>
+      <c r="F10" s="62"/>
+      <c r="G10" s="62"/>
+      <c r="H10" s="62"/>
+      <c r="I10" s="62"/>
+      <c r="J10" s="62"/>
+      <c r="K10" s="62"/>
+      <c r="L10" s="62"/>
+      <c r="M10" s="62"/>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.5">
-      <c r="B11" s="63"/>
-      <c r="C11" s="63"/>
-      <c r="D11" s="63"/>
-      <c r="E11" s="63"/>
-      <c r="F11" s="63"/>
-      <c r="G11" s="63"/>
-      <c r="H11" s="63"/>
-      <c r="I11" s="63"/>
-      <c r="J11" s="63"/>
-      <c r="K11" s="63"/>
-      <c r="L11" s="63"/>
-      <c r="M11" s="63"/>
+      <c r="B11" s="62"/>
+      <c r="C11" s="62"/>
+      <c r="D11" s="62"/>
+      <c r="E11" s="62"/>
+      <c r="F11" s="62"/>
+      <c r="G11" s="62"/>
+      <c r="H11" s="62"/>
+      <c r="I11" s="62"/>
+      <c r="J11" s="62"/>
+      <c r="K11" s="62"/>
+      <c r="L11" s="62"/>
+      <c r="M11" s="62"/>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.5">
-      <c r="B12" s="63"/>
-      <c r="C12" s="63"/>
-      <c r="D12" s="63"/>
-      <c r="E12" s="63"/>
-      <c r="F12" s="63"/>
-      <c r="G12" s="63"/>
-      <c r="H12" s="63"/>
-      <c r="I12" s="63"/>
-      <c r="J12" s="63"/>
-      <c r="K12" s="63"/>
-      <c r="L12" s="63"/>
-      <c r="M12" s="63"/>
+      <c r="B12" s="62"/>
+      <c r="C12" s="62"/>
+      <c r="D12" s="62"/>
+      <c r="E12" s="62"/>
+      <c r="F12" s="62"/>
+      <c r="G12" s="62"/>
+      <c r="H12" s="62"/>
+      <c r="I12" s="62"/>
+      <c r="J12" s="62"/>
+      <c r="K12" s="62"/>
+      <c r="L12" s="62"/>
+      <c r="M12" s="62"/>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.5">
-      <c r="B13" s="63"/>
-      <c r="C13" s="63"/>
-      <c r="D13" s="63"/>
-      <c r="E13" s="63"/>
-      <c r="F13" s="63"/>
-      <c r="G13" s="63"/>
-      <c r="H13" s="63"/>
-      <c r="I13" s="63"/>
-      <c r="J13" s="63"/>
-      <c r="K13" s="63"/>
-      <c r="L13" s="63"/>
-      <c r="M13" s="63"/>
+      <c r="B13" s="62"/>
+      <c r="C13" s="62"/>
+      <c r="D13" s="62"/>
+      <c r="E13" s="62"/>
+      <c r="F13" s="62"/>
+      <c r="G13" s="62"/>
+      <c r="H13" s="62"/>
+      <c r="I13" s="62"/>
+      <c r="J13" s="62"/>
+      <c r="K13" s="62"/>
+      <c r="L13" s="62"/>
+      <c r="M13" s="62"/>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.5">
-      <c r="B14" s="63"/>
-      <c r="C14" s="63"/>
-      <c r="D14" s="63"/>
-      <c r="E14" s="63"/>
-      <c r="F14" s="63"/>
-      <c r="G14" s="63"/>
-      <c r="H14" s="63"/>
-      <c r="I14" s="63"/>
-      <c r="J14" s="63"/>
-      <c r="K14" s="63"/>
-      <c r="L14" s="63"/>
-      <c r="M14" s="63"/>
+      <c r="B14" s="62"/>
+      <c r="C14" s="62"/>
+      <c r="D14" s="62"/>
+      <c r="E14" s="62"/>
+      <c r="F14" s="62"/>
+      <c r="G14" s="62"/>
+      <c r="H14" s="62"/>
+      <c r="I14" s="62"/>
+      <c r="J14" s="62"/>
+      <c r="K14" s="62"/>
+      <c r="L14" s="62"/>
+      <c r="M14" s="62"/>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.5">
-      <c r="B15" s="63"/>
-      <c r="C15" s="63"/>
-      <c r="D15" s="63"/>
-      <c r="E15" s="63"/>
-      <c r="F15" s="63"/>
-      <c r="G15" s="63"/>
-      <c r="H15" s="63"/>
-      <c r="I15" s="63"/>
-      <c r="J15" s="63"/>
-      <c r="K15" s="63"/>
-      <c r="L15" s="63"/>
-      <c r="M15" s="63"/>
+      <c r="B15" s="62"/>
+      <c r="C15" s="62"/>
+      <c r="D15" s="62"/>
+      <c r="E15" s="62"/>
+      <c r="F15" s="62"/>
+      <c r="G15" s="62"/>
+      <c r="H15" s="62"/>
+      <c r="I15" s="62"/>
+      <c r="J15" s="62"/>
+      <c r="K15" s="62"/>
+      <c r="L15" s="62"/>
+      <c r="M15" s="62"/>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.5">
-      <c r="B16" s="63"/>
-      <c r="C16" s="63"/>
-      <c r="D16" s="63"/>
-      <c r="E16" s="63"/>
-      <c r="F16" s="63"/>
-      <c r="G16" s="63"/>
-      <c r="H16" s="63"/>
-      <c r="I16" s="63"/>
-      <c r="J16" s="63"/>
-      <c r="K16" s="63"/>
-      <c r="L16" s="63"/>
-      <c r="M16" s="63"/>
+      <c r="B16" s="62"/>
+      <c r="C16" s="62"/>
+      <c r="D16" s="62"/>
+      <c r="E16" s="62"/>
+      <c r="F16" s="62"/>
+      <c r="G16" s="62"/>
+      <c r="H16" s="62"/>
+      <c r="I16" s="62"/>
+      <c r="J16" s="62"/>
+      <c r="K16" s="62"/>
+      <c r="L16" s="62"/>
+      <c r="M16" s="62"/>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.5">
-      <c r="B17" s="63"/>
-      <c r="C17" s="63"/>
-      <c r="D17" s="63"/>
-      <c r="E17" s="63"/>
-      <c r="F17" s="63"/>
-      <c r="G17" s="63"/>
-      <c r="H17" s="63"/>
-      <c r="I17" s="63"/>
-      <c r="J17" s="63"/>
-      <c r="K17" s="63"/>
-      <c r="L17" s="63"/>
-      <c r="M17" s="63"/>
+      <c r="B17" s="62"/>
+      <c r="C17" s="62"/>
+      <c r="D17" s="62"/>
+      <c r="E17" s="62"/>
+      <c r="F17" s="62"/>
+      <c r="G17" s="62"/>
+      <c r="H17" s="62"/>
+      <c r="I17" s="62"/>
+      <c r="J17" s="62"/>
+      <c r="K17" s="62"/>
+      <c r="L17" s="62"/>
+      <c r="M17" s="62"/>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.5">
-      <c r="B18" s="63"/>
-      <c r="C18" s="63"/>
-      <c r="D18" s="63"/>
-      <c r="E18" s="63"/>
-      <c r="F18" s="63"/>
-      <c r="G18" s="63"/>
-      <c r="H18" s="63"/>
-      <c r="I18" s="63"/>
-      <c r="J18" s="63"/>
-      <c r="K18" s="63"/>
-      <c r="L18" s="63"/>
-      <c r="M18" s="63"/>
+      <c r="B18" s="62"/>
+      <c r="C18" s="62"/>
+      <c r="D18" s="62"/>
+      <c r="E18" s="62"/>
+      <c r="F18" s="62"/>
+      <c r="G18" s="62"/>
+      <c r="H18" s="62"/>
+      <c r="I18" s="62"/>
+      <c r="J18" s="62"/>
+      <c r="K18" s="62"/>
+      <c r="L18" s="62"/>
+      <c r="M18" s="62"/>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.5">
-      <c r="B19" s="63"/>
-      <c r="C19" s="63"/>
-      <c r="D19" s="63"/>
-      <c r="E19" s="63"/>
-      <c r="F19" s="63"/>
-      <c r="G19" s="63"/>
-      <c r="H19" s="63"/>
-      <c r="I19" s="63"/>
-      <c r="J19" s="63"/>
-      <c r="K19" s="63"/>
-      <c r="L19" s="63"/>
-      <c r="M19" s="63"/>
+      <c r="B19" s="62"/>
+      <c r="C19" s="62"/>
+      <c r="D19" s="62"/>
+      <c r="E19" s="62"/>
+      <c r="F19" s="62"/>
+      <c r="G19" s="62"/>
+      <c r="H19" s="62"/>
+      <c r="I19" s="62"/>
+      <c r="J19" s="62"/>
+      <c r="K19" s="62"/>
+      <c r="L19" s="62"/>
+      <c r="M19" s="62"/>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.5">
-      <c r="B20" s="63"/>
-      <c r="C20" s="63"/>
-      <c r="D20" s="63"/>
-      <c r="E20" s="63"/>
-      <c r="F20" s="63"/>
-      <c r="G20" s="63"/>
-      <c r="H20" s="63"/>
-      <c r="I20" s="63"/>
-      <c r="J20" s="63"/>
-      <c r="K20" s="63"/>
-      <c r="L20" s="63"/>
-      <c r="M20" s="63"/>
+      <c r="B20" s="62"/>
+      <c r="C20" s="62"/>
+      <c r="D20" s="62"/>
+      <c r="E20" s="62"/>
+      <c r="F20" s="62"/>
+      <c r="G20" s="62"/>
+      <c r="H20" s="62"/>
+      <c r="I20" s="62"/>
+      <c r="J20" s="62"/>
+      <c r="K20" s="62"/>
+      <c r="L20" s="62"/>
+      <c r="M20" s="62"/>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.5">
-      <c r="B21" s="63"/>
-      <c r="C21" s="63"/>
-      <c r="D21" s="63"/>
-      <c r="E21" s="63"/>
-      <c r="F21" s="63"/>
-      <c r="G21" s="63"/>
-      <c r="H21" s="63"/>
-      <c r="I21" s="63"/>
-      <c r="J21" s="63"/>
-      <c r="K21" s="63"/>
-      <c r="L21" s="63"/>
-      <c r="M21" s="63"/>
+      <c r="B21" s="62"/>
+      <c r="C21" s="62"/>
+      <c r="D21" s="62"/>
+      <c r="E21" s="62"/>
+      <c r="F21" s="62"/>
+      <c r="G21" s="62"/>
+      <c r="H21" s="62"/>
+      <c r="I21" s="62"/>
+      <c r="J21" s="62"/>
+      <c r="K21" s="62"/>
+      <c r="L21" s="62"/>
+      <c r="M21" s="62"/>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.5">
-      <c r="B22" s="63"/>
-      <c r="C22" s="63"/>
-      <c r="D22" s="63"/>
-      <c r="E22" s="63"/>
-      <c r="F22" s="63"/>
-      <c r="G22" s="63"/>
-      <c r="H22" s="63"/>
-      <c r="I22" s="63"/>
-      <c r="J22" s="63"/>
-      <c r="K22" s="63"/>
-      <c r="L22" s="63"/>
-      <c r="M22" s="63"/>
+      <c r="B22" s="62"/>
+      <c r="C22" s="62"/>
+      <c r="D22" s="62"/>
+      <c r="E22" s="62"/>
+      <c r="F22" s="62"/>
+      <c r="G22" s="62"/>
+      <c r="H22" s="62"/>
+      <c r="I22" s="62"/>
+      <c r="J22" s="62"/>
+      <c r="K22" s="62"/>
+      <c r="L22" s="62"/>
+      <c r="M22" s="62"/>
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.5">
-      <c r="B23" s="63"/>
-      <c r="C23" s="63"/>
-      <c r="D23" s="63"/>
-      <c r="E23" s="63"/>
-      <c r="F23" s="63"/>
-      <c r="G23" s="63"/>
-      <c r="H23" s="63"/>
-      <c r="I23" s="63"/>
-      <c r="J23" s="63"/>
-      <c r="K23" s="63"/>
-      <c r="L23" s="63"/>
-      <c r="M23" s="63"/>
+      <c r="B23" s="62"/>
+      <c r="C23" s="62"/>
+      <c r="D23" s="62"/>
+      <c r="E23" s="62"/>
+      <c r="F23" s="62"/>
+      <c r="G23" s="62"/>
+      <c r="H23" s="62"/>
+      <c r="I23" s="62"/>
+      <c r="J23" s="62"/>
+      <c r="K23" s="62"/>
+      <c r="L23" s="62"/>
+      <c r="M23" s="62"/>
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.5">
-      <c r="B24" s="63"/>
-      <c r="C24" s="63"/>
-      <c r="D24" s="63"/>
-      <c r="E24" s="63"/>
-      <c r="F24" s="63"/>
-      <c r="G24" s="63"/>
-      <c r="H24" s="63"/>
-      <c r="I24" s="63"/>
-      <c r="J24" s="63"/>
-      <c r="K24" s="63"/>
-      <c r="L24" s="63"/>
-      <c r="M24" s="63"/>
+      <c r="B24" s="62"/>
+      <c r="C24" s="62"/>
+      <c r="D24" s="62"/>
+      <c r="E24" s="62"/>
+      <c r="F24" s="62"/>
+      <c r="G24" s="62"/>
+      <c r="H24" s="62"/>
+      <c r="I24" s="62"/>
+      <c r="J24" s="62"/>
+      <c r="K24" s="62"/>
+      <c r="L24" s="62"/>
+      <c r="M24" s="62"/>
     </row>
     <row r="25" spans="2:13" x14ac:dyDescent="0.5">
-      <c r="B25" s="63"/>
-      <c r="C25" s="63"/>
-      <c r="D25" s="63"/>
-      <c r="E25" s="63"/>
-      <c r="F25" s="63"/>
-      <c r="G25" s="63"/>
-      <c r="H25" s="63"/>
-      <c r="I25" s="63"/>
-      <c r="J25" s="63"/>
-      <c r="K25" s="63"/>
-      <c r="L25" s="63"/>
-      <c r="M25" s="63"/>
+      <c r="B25" s="62"/>
+      <c r="C25" s="62"/>
+      <c r="D25" s="62"/>
+      <c r="E25" s="62"/>
+      <c r="F25" s="62"/>
+      <c r="G25" s="62"/>
+      <c r="H25" s="62"/>
+      <c r="I25" s="62"/>
+      <c r="J25" s="62"/>
+      <c r="K25" s="62"/>
+      <c r="L25" s="62"/>
+      <c r="M25" s="62"/>
     </row>
     <row r="26" spans="2:13" x14ac:dyDescent="0.5">
-      <c r="B26" s="63"/>
-      <c r="C26" s="63"/>
-      <c r="D26" s="63"/>
-      <c r="E26" s="63"/>
-      <c r="F26" s="63"/>
-      <c r="G26" s="63"/>
-      <c r="H26" s="63"/>
-      <c r="I26" s="63"/>
-      <c r="J26" s="63"/>
-      <c r="K26" s="63"/>
-      <c r="L26" s="63"/>
-      <c r="M26" s="63"/>
+      <c r="B26" s="62"/>
+      <c r="C26" s="62"/>
+      <c r="D26" s="62"/>
+      <c r="E26" s="62"/>
+      <c r="F26" s="62"/>
+      <c r="G26" s="62"/>
+      <c r="H26" s="62"/>
+      <c r="I26" s="62"/>
+      <c r="J26" s="62"/>
+      <c r="K26" s="62"/>
+      <c r="L26" s="62"/>
+      <c r="M26" s="62"/>
     </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.5">
-      <c r="B27" s="63"/>
-      <c r="C27" s="63"/>
-      <c r="D27" s="63"/>
-      <c r="E27" s="63"/>
-      <c r="F27" s="63"/>
-      <c r="G27" s="63"/>
-      <c r="H27" s="63"/>
-      <c r="I27" s="63"/>
-      <c r="J27" s="63"/>
-      <c r="K27" s="63"/>
-      <c r="L27" s="63"/>
-      <c r="M27" s="63"/>
+      <c r="B27" s="62"/>
+      <c r="C27" s="62"/>
+      <c r="D27" s="62"/>
+      <c r="E27" s="62"/>
+      <c r="F27" s="62"/>
+      <c r="G27" s="62"/>
+      <c r="H27" s="62"/>
+      <c r="I27" s="62"/>
+      <c r="J27" s="62"/>
+      <c r="K27" s="62"/>
+      <c r="L27" s="62"/>
+      <c r="M27" s="62"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/feedback_forms/current_versions/landfill_operator_feedback_v071.xlsx
+++ b/feedback_forms/current_versions/landfill_operator_feedback_v071.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\tony_local\pycharm\feedback_portal\feedback_forms\current_versions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{329CB5EE-B907-40B9-BE12-135D9807EBA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEB7C66C-2CF7-414C-AD28-0455F749206C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4333" yWindow="1073" windowWidth="19200" windowHeight="11387" tabRatio="705" xr2:uid="{908CDDAE-4CC3-4DCD-AAA9-A26C259C2234}"/>
+    <workbookView xWindow="5693" yWindow="2433" windowWidth="19200" windowHeight="11387" tabRatio="705" xr2:uid="{908CDDAE-4CC3-4DCD-AAA9-A26C259C2234}"/>
   </bookViews>
   <sheets>
     <sheet name="Feedback Form" sheetId="6" r:id="rId1"/>
@@ -2117,13 +2117,19 @@
     <numFmt numFmtId="164" formatCode="mm/dd/yyyy\ hh:mm"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yyyy"/>
   </numFmts>
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -2483,50 +2489,50 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2534,8 +2540,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2544,72 +2550,72 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
@@ -2623,9 +2629,9 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2634,16 +2640,67 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2651,59 +2708,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3944,7 +3950,7 @@
       <c r="C2" s="31"/>
       <c r="D2" s="31"/>
       <c r="E2" s="31"/>
-      <c r="F2" s="80"/>
+      <c r="F2" s="79"/>
     </row>
     <row r="3" spans="2:33" s="30" customFormat="1" ht="51" x14ac:dyDescent="0.5">
       <c r="B3" s="31" t="s">
@@ -3953,7 +3959,7 @@
       <c r="C3" s="31"/>
       <c r="D3" s="31"/>
       <c r="E3" s="31"/>
-      <c r="F3" s="81"/>
+      <c r="F3" s="80"/>
     </row>
     <row r="4" spans="2:33" s="30" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B4" s="32"/>
@@ -4468,11 +4474,11 @@
       <c r="AG45" s="67"/>
     </row>
     <row r="46" spans="2:33" s="30" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B46" s="79" t="s">
+      <c r="B46" s="81" t="s">
         <v>38</v>
       </c>
-      <c r="C46" s="79"/>
-      <c r="D46" s="79"/>
+      <c r="C46" s="81"/>
+      <c r="D46" s="81"/>
       <c r="AG46" s="30" t="s">
         <v>0</v>
       </c>
@@ -10315,17 +10321,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1aa5fbe9-a248-4c55-92b7-8f3861f8fb32">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="e20ceb87-0d79-402a-b4b9-75d78589c76d" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -10334,7 +10329,7 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000E9A34E7C7C736409D4BDE6375CCC276" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0cf521a6d855790dbe6a6d894ff439cd">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1aa5fbe9-a248-4c55-92b7-8f3861f8fb32" xmlns:ns3="e20ceb87-0d79-402a-b4b9-75d78589c76d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a45aa6d812898c4b0f52b4c3685679ce" ns2:_="" ns3:_="">
     <xsd:import namespace="1aa5fbe9-a248-4c55-92b7-8f3861f8fb32"/>
@@ -10569,18 +10564,18 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{567EEBE1-6545-4ECC-A20C-42A5CA5522CB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="1aa5fbe9-a248-4c55-92b7-8f3861f8fb32"/>
-    <ds:schemaRef ds:uri="e20ceb87-0d79-402a-b4b9-75d78589c76d"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1aa5fbe9-a248-4c55-92b7-8f3861f8fb32">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="e20ceb87-0d79-402a-b4b9-75d78589c76d" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{393EEAE4-A9A0-45DD-A8E7-CAAABB0BE8BF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
@@ -10588,7 +10583,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC83B422-5B73-4269-9006-1DDE9C149499}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -10607,6 +10602,17 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{567EEBE1-6545-4ECC-A20C-42A5CA5522CB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="1aa5fbe9-a248-4c55-92b7-8f3861f8fb32"/>
+    <ds:schemaRef ds:uri="e20ceb87-0d79-402a-b4b9-75d78589c76d"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{9de5aaee-7788-40b1-a438-c0ccc98c87cc}" enabled="0" method="" siteId="{9de5aaee-7788-40b1-a438-c0ccc98c87cc}" removed="1"/>

--- a/feedback_forms/current_versions/landfill_operator_feedback_v071.xlsx
+++ b/feedback_forms/current_versions/landfill_operator_feedback_v071.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\tony_local\pycharm\feedback_portal\feedback_forms\current_versions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEB7C66C-2CF7-414C-AD28-0455F749206C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EC358A7-D0E5-4F6D-97BE-965067FA5B29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5693" yWindow="2433" windowWidth="19200" windowHeight="11387" tabRatio="705" xr2:uid="{908CDDAE-4CC3-4DCD-AAA9-A26C259C2234}"/>
+    <workbookView xWindow="3993" yWindow="733" windowWidth="19200" windowHeight="11387" tabRatio="705" xr2:uid="{908CDDAE-4CC3-4DCD-AAA9-A26C259C2234}"/>
   </bookViews>
   <sheets>
     <sheet name="Feedback Form" sheetId="6" r:id="rId1"/>
@@ -2679,18 +2679,6 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -2709,6 +2697,15 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3895,7 +3892,9 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="B1:AG73"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23:D28"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
@@ -3950,7 +3949,7 @@
       <c r="C2" s="31"/>
       <c r="D2" s="31"/>
       <c r="E2" s="31"/>
-      <c r="F2" s="79"/>
+      <c r="F2" s="76"/>
     </row>
     <row r="3" spans="2:33" s="30" customFormat="1" ht="51" x14ac:dyDescent="0.5">
       <c r="B3" s="31" t="s">
@@ -3959,7 +3958,7 @@
       <c r="C3" s="31"/>
       <c r="D3" s="31"/>
       <c r="E3" s="31"/>
-      <c r="F3" s="80"/>
+      <c r="F3" s="77"/>
     </row>
     <row r="4" spans="2:33" s="30" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B4" s="32"/>
@@ -4190,7 +4189,7 @@
         <v>14</v>
       </c>
       <c r="C23" s="35"/>
-      <c r="D23" s="73">
+      <c r="D23" s="79">
         <v>153</v>
       </c>
       <c r="E23" s="68"/>
@@ -4201,7 +4200,7 @@
         <v>15</v>
       </c>
       <c r="C24" s="35"/>
-      <c r="D24" s="73">
+      <c r="D24" s="79">
         <v>447</v>
       </c>
       <c r="E24" s="35"/>
@@ -4211,7 +4210,7 @@
         <v>16</v>
       </c>
       <c r="C25" s="35"/>
-      <c r="D25" s="74">
+      <c r="D25" s="80">
         <v>45468</v>
       </c>
       <c r="E25" s="35"/>
@@ -4221,7 +4220,7 @@
         <v>17</v>
       </c>
       <c r="C26" s="35"/>
-      <c r="D26" s="73">
+      <c r="D26" s="79">
         <v>35.321100000000001</v>
       </c>
       <c r="E26" s="68"/>
@@ -4232,7 +4231,7 @@
         <v>18</v>
       </c>
       <c r="C27" s="35"/>
-      <c r="D27" s="73">
+      <c r="D27" s="79">
         <v>-119.5808</v>
       </c>
       <c r="E27" s="68"/>
@@ -4243,7 +4242,7 @@
         <v>19</v>
       </c>
       <c r="C28" s="35"/>
-      <c r="D28" s="75" t="s">
+      <c r="D28" s="81" t="s">
         <v>20</v>
       </c>
       <c r="E28" s="68"/>
@@ -4299,7 +4298,7 @@
         <v>21</v>
       </c>
       <c r="C32" s="64"/>
-      <c r="D32" s="76" t="s">
+      <c r="D32" s="73" t="s">
         <v>22</v>
       </c>
       <c r="E32" s="65"/>
@@ -4310,7 +4309,7 @@
         <v>23</v>
       </c>
       <c r="C33" s="65"/>
-      <c r="D33" s="76" t="s">
+      <c r="D33" s="73" t="s">
         <v>24</v>
       </c>
       <c r="E33" s="65"/>
@@ -4321,7 +4320,7 @@
         <v>25</v>
       </c>
       <c r="C34" s="64"/>
-      <c r="D34" s="76" t="s">
+      <c r="D34" s="73" t="s">
         <v>26</v>
       </c>
       <c r="E34" s="65"/>
@@ -4332,7 +4331,7 @@
         <v>27</v>
       </c>
       <c r="C35" s="64"/>
-      <c r="D35" s="76" t="s">
+      <c r="D35" s="73" t="s">
         <v>28</v>
       </c>
       <c r="E35" s="65"/>
@@ -4343,7 +4342,7 @@
         <v>29</v>
       </c>
       <c r="C36" s="64"/>
-      <c r="D36" s="76" t="s">
+      <c r="D36" s="73" t="s">
         <v>30</v>
       </c>
       <c r="E36" s="65"/>
@@ -4398,7 +4397,7 @@
         <v>31</v>
       </c>
       <c r="C40" s="64"/>
-      <c r="D40" s="77">
+      <c r="D40" s="74">
         <v>45152</v>
       </c>
       <c r="E40" s="37"/>
@@ -4409,7 +4408,7 @@
         <v>32</v>
       </c>
       <c r="C41" s="65"/>
-      <c r="D41" s="76" t="s">
+      <c r="D41" s="73" t="s">
         <v>33</v>
       </c>
       <c r="G41" s="36"/>
@@ -4429,7 +4428,7 @@
         <v>36</v>
       </c>
       <c r="C43" s="65"/>
-      <c r="D43" s="76" t="s">
+      <c r="D43" s="73" t="s">
         <v>37</v>
       </c>
       <c r="G43" s="36"/>
@@ -4474,11 +4473,11 @@
       <c r="AG45" s="67"/>
     </row>
     <row r="46" spans="2:33" s="30" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B46" s="81" t="s">
+      <c r="B46" s="78" t="s">
         <v>38</v>
       </c>
-      <c r="C46" s="81"/>
-      <c r="D46" s="81"/>
+      <c r="C46" s="78"/>
+      <c r="D46" s="78"/>
       <c r="AG46" s="30" t="s">
         <v>0</v>
       </c>
@@ -4487,7 +4486,7 @@
       <c r="B47" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="D47" s="76">
+      <c r="D47" s="73">
         <v>500</v>
       </c>
       <c r="G47" s="36"/>
@@ -4500,7 +4499,7 @@
         <v>40</v>
       </c>
       <c r="C48" s="30"/>
-      <c r="D48" s="76">
+      <c r="D48" s="73">
         <v>35.321100000000001</v>
       </c>
       <c r="E48" s="30"/>
@@ -4511,7 +4510,7 @@
         <v>41</v>
       </c>
       <c r="C49" s="30"/>
-      <c r="D49" s="76">
+      <c r="D49" s="73">
         <v>-119.5808</v>
       </c>
       <c r="E49" s="30"/>
@@ -4542,7 +4541,7 @@
         <v>44</v>
       </c>
       <c r="C52" s="65"/>
-      <c r="D52" s="76" t="s">
+      <c r="D52" s="73" t="s">
         <v>45</v>
       </c>
       <c r="G52" s="36"/>
@@ -4579,7 +4578,7 @@
       <c r="B56" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="D56" s="76" t="s">
+      <c r="D56" s="73" t="s">
         <v>50</v>
       </c>
       <c r="G56" s="36"/>
@@ -4632,7 +4631,7 @@
       <c r="B60" s="64" t="s">
         <v>51</v>
       </c>
-      <c r="D60" s="76" t="s">
+      <c r="D60" s="73" t="s">
         <v>52</v>
       </c>
       <c r="G60" s="36"/>
@@ -4641,7 +4640,7 @@
       <c r="B61" s="64" t="s">
         <v>53</v>
       </c>
-      <c r="D61" s="77">
+      <c r="D61" s="74">
         <v>45275</v>
       </c>
       <c r="G61" s="36"/>
@@ -4650,7 +4649,7 @@
       <c r="B62" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="D62" s="77">
+      <c r="D62" s="74">
         <v>85</v>
       </c>
       <c r="G62" s="36"/>
@@ -4659,7 +4658,7 @@
       <c r="B63" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="D63" s="76">
+      <c r="D63" s="73">
         <v>85</v>
       </c>
       <c r="G63" s="36"/>
@@ -4677,7 +4676,7 @@
       <c r="B65" s="64" t="s">
         <v>57</v>
       </c>
-      <c r="D65" s="76" t="s">
+      <c r="D65" s="73" t="s">
         <v>58</v>
       </c>
       <c r="G65" s="36"/>
@@ -4695,7 +4694,7 @@
       <c r="B67" s="64" t="s">
         <v>60</v>
       </c>
-      <c r="D67" s="76" t="s">
+      <c r="D67" s="73" t="s">
         <v>61</v>
       </c>
       <c r="G67" s="36"/>
@@ -4712,7 +4711,7 @@
       <c r="B71" s="64" t="s">
         <v>62</v>
       </c>
-      <c r="D71" s="77">
+      <c r="D71" s="74">
         <v>45276</v>
       </c>
       <c r="G71" s="36"/>
@@ -4721,7 +4720,7 @@
       <c r="B72" s="64" t="s">
         <v>63</v>
       </c>
-      <c r="D72" s="77">
+      <c r="D72" s="74">
         <v>45277</v>
       </c>
       <c r="G72" s="36"/>
@@ -4731,7 +4730,7 @@
         <v>64</v>
       </c>
       <c r="C73" s="41"/>
-      <c r="D73" s="76" t="s">
+      <c r="D73" s="73" t="s">
         <v>65</v>
       </c>
       <c r="G73" s="36"/>
@@ -4967,7 +4966,7 @@
       <c r="B12" s="23" t="s">
         <v>441</v>
       </c>
-      <c r="C12" s="78">
+      <c r="C12" s="75">
         <v>45841</v>
       </c>
       <c r="D12" s="23" t="s">
@@ -4978,7 +4977,7 @@
       <c r="B13" s="23" t="s">
         <v>443</v>
       </c>
-      <c r="C13" s="78">
+      <c r="C13" s="75">
         <v>45841</v>
       </c>
       <c r="D13" s="23" t="s">
@@ -4992,7 +4991,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.5">
       <c r="B15" s="23"/>
-      <c r="C15" s="78"/>
+      <c r="C15" s="75"/>
       <c r="D15" s="23"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.5">
@@ -10321,15 +10320,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000E9A34E7C7C736409D4BDE6375CCC276" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0cf521a6d855790dbe6a6d894ff439cd">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1aa5fbe9-a248-4c55-92b7-8f3861f8fb32" xmlns:ns3="e20ceb87-0d79-402a-b4b9-75d78589c76d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a45aa6d812898c4b0f52b4c3685679ce" ns2:_="" ns3:_="">
     <xsd:import namespace="1aa5fbe9-a248-4c55-92b7-8f3861f8fb32"/>
@@ -10564,6 +10554,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -10576,14 +10575,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{393EEAE4-A9A0-45DD-A8E7-CAAABB0BE8BF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC83B422-5B73-4269-9006-1DDE9C149499}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -10598,6 +10589,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{393EEAE4-A9A0-45DD-A8E7-CAAABB0BE8BF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/feedback_forms/current_versions/landfill_operator_feedback_v071.xlsx
+++ b/feedback_forms/current_versions/landfill_operator_feedback_v071.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\tony_local\pycharm\feedback_portal\feedback_forms\current_versions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EC358A7-D0E5-4F6D-97BE-965067FA5B29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AE24362-728B-4D00-959B-AD6DB4709AA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3993" yWindow="733" windowWidth="19200" windowHeight="11387" tabRatio="705" xr2:uid="{908CDDAE-4CC3-4DCD-AAA9-A26C259C2234}"/>
+    <workbookView xWindow="5047" yWindow="2473" windowWidth="19200" windowHeight="11387" tabRatio="705" xr2:uid="{908CDDAE-4CC3-4DCD-AAA9-A26C259C2234}"/>
   </bookViews>
   <sheets>
     <sheet name="Feedback Form" sheetId="6" r:id="rId1"/>
@@ -62,7 +62,7 @@
     <definedName name="jinja_re_monitored_concentration">'Feedback Form'!$D$63</definedName>
     <definedName name="jinja_re_monitored_timestamp">'Feedback Form'!$D$62</definedName>
   </definedNames>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="191028" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -2696,16 +2696,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="3" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="3" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4189,7 +4189,7 @@
         <v>14</v>
       </c>
       <c r="C23" s="35"/>
-      <c r="D23" s="79">
+      <c r="D23" s="78">
         <v>153</v>
       </c>
       <c r="E23" s="68"/>
@@ -4200,7 +4200,7 @@
         <v>15</v>
       </c>
       <c r="C24" s="35"/>
-      <c r="D24" s="79">
+      <c r="D24" s="78">
         <v>447</v>
       </c>
       <c r="E24" s="35"/>
@@ -4210,7 +4210,7 @@
         <v>16</v>
       </c>
       <c r="C25" s="35"/>
-      <c r="D25" s="80">
+      <c r="D25" s="79">
         <v>45468</v>
       </c>
       <c r="E25" s="35"/>
@@ -4220,7 +4220,7 @@
         <v>17</v>
       </c>
       <c r="C26" s="35"/>
-      <c r="D26" s="79">
+      <c r="D26" s="78">
         <v>35.321100000000001</v>
       </c>
       <c r="E26" s="68"/>
@@ -4231,7 +4231,7 @@
         <v>18</v>
       </c>
       <c r="C27" s="35"/>
-      <c r="D27" s="79">
+      <c r="D27" s="78">
         <v>-119.5808</v>
       </c>
       <c r="E27" s="68"/>
@@ -4242,7 +4242,7 @@
         <v>19</v>
       </c>
       <c r="C28" s="35"/>
-      <c r="D28" s="81" t="s">
+      <c r="D28" s="80" t="s">
         <v>20</v>
       </c>
       <c r="E28" s="68"/>
@@ -4473,11 +4473,11 @@
       <c r="AG45" s="67"/>
     </row>
     <row r="46" spans="2:33" s="30" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B46" s="78" t="s">
+      <c r="B46" s="81" t="s">
         <v>38</v>
       </c>
-      <c r="C46" s="78"/>
-      <c r="D46" s="78"/>
+      <c r="C46" s="81"/>
+      <c r="D46" s="81"/>
       <c r="AG46" s="30" t="s">
         <v>0</v>
       </c>
